--- a/raw_data/20200818_saline/20200818_Sensor0_Test_55.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_55.xlsx
@@ -1,553 +1,969 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4F4B7F-ECA0-42D9-8B1C-AACCFDE58C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>48602.896314</v>
+        <v>48602.896313999998</v>
       </c>
       <c r="B2" s="1">
         <v>13.500805</v>
       </c>
       <c r="C2" s="1">
-        <v>900.680000</v>
+        <v>900.68</v>
       </c>
       <c r="D2" s="1">
-        <v>-181.671000</v>
+        <v>-181.67099999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>48612.991885</v>
+        <v>48612.991885000003</v>
       </c>
       <c r="G2" s="1">
-        <v>13.503609</v>
+        <v>13.503609000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>917.334000</v>
+        <v>917.33399999999995</v>
       </c>
       <c r="I2" s="1">
-        <v>-156.745000</v>
+        <v>-156.745</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>48623.472384</v>
+        <v>48623.472384000001</v>
       </c>
       <c r="L2" s="1">
-        <v>13.506520</v>
+        <v>13.50652</v>
       </c>
       <c r="M2" s="1">
-        <v>941.273000</v>
+        <v>941.27300000000002</v>
       </c>
       <c r="N2" s="1">
-        <v>-115.457000</v>
+        <v>-115.45699999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>48633.689440</v>
+        <v>48633.689440000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>13.509358</v>
+        <v>13.509358000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>948.632000</v>
+        <v>948.63199999999995</v>
       </c>
       <c r="S2" s="1">
-        <v>-101.526000</v>
+        <v>-101.526</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>48644.282498</v>
       </c>
       <c r="V2" s="1">
-        <v>13.512301</v>
+        <v>13.512301000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>955.827000</v>
+        <v>955.827</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.874200</v>
+        <v>-88.874200000000002</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>48654.694055</v>
@@ -556,28 +972,28 @@
         <v>13.515193</v>
       </c>
       <c r="AB2" s="1">
-        <v>963.784000</v>
+        <v>963.78399999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-79.928800</v>
+        <v>-79.928799999999995</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>48665.287078</v>
+        <v>48665.287078000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>13.518135</v>
+        <v>13.518134999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>968.940000</v>
+        <v>968.94</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.737100</v>
+        <v>-79.737099999999998</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>48675.750194</v>
@@ -586,28 +1002,28 @@
         <v>13.521042</v>
       </c>
       <c r="AL2" s="1">
-        <v>977.195000</v>
+        <v>977.19500000000005</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.865400</v>
+        <v>-87.865399999999994</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>48686.622490</v>
+        <v>48686.622490000002</v>
       </c>
       <c r="AP2" s="1">
-        <v>13.524062</v>
+        <v>13.524062000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>986.542000</v>
+        <v>986.54200000000003</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.038000</v>
+        <v>-103.038</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>48697.546876</v>
@@ -616,13 +1032,13 @@
         <v>13.527096</v>
       </c>
       <c r="AV2" s="1">
-        <v>998.075000</v>
+        <v>998.07500000000005</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.810000</v>
+        <v>-124.81</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>48708.758941</v>
@@ -631,43 +1047,43 @@
         <v>13.530211</v>
       </c>
       <c r="BA2" s="1">
-        <v>1007.800000</v>
+        <v>1007.8</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.702000</v>
+        <v>-143.702</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>48719.386719</v>
+        <v>48719.386719000002</v>
       </c>
       <c r="BE2" s="1">
         <v>13.533163</v>
       </c>
       <c r="BF2" s="1">
-        <v>1053.410000</v>
+        <v>1053.4100000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-228.962000</v>
+        <v>-228.96199999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>48730.438586</v>
+        <v>48730.438585999997</v>
       </c>
       <c r="BJ2" s="1">
-        <v>13.536233</v>
+        <v>13.536232999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1133.190000</v>
+        <v>1133.19</v>
       </c>
       <c r="BL2" s="1">
-        <v>-365.681000</v>
+        <v>-365.68099999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>48742.242865</v>
@@ -676,28 +1092,28 @@
         <v>13.539512</v>
       </c>
       <c r="BP2" s="1">
-        <v>1264.770000</v>
+        <v>1264.77</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-577.359000</v>
+        <v>-577.35900000000004</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>48752.605780</v>
+        <v>48752.605779999998</v>
       </c>
       <c r="BT2" s="1">
-        <v>13.542390</v>
+        <v>13.542389999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1412.220000</v>
+        <v>1412.22</v>
       </c>
       <c r="BV2" s="1">
-        <v>-803.876000</v>
+        <v>-803.87599999999998</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>48762.957317</v>
@@ -706,120 +1122,120 @@
         <v>13.545266</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1575.070000</v>
+        <v>1575.07</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1040.850000</v>
+        <v>-1040.8499999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>48774.154999</v>
+        <v>48774.154998999998</v>
       </c>
       <c r="CD2" s="1">
-        <v>13.548376</v>
+        <v>13.548375999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1985.910000</v>
+        <v>1985.91</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1593.890000</v>
+        <v>-1593.89</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>48603.318408</v>
+        <v>48603.318407999999</v>
       </c>
       <c r="B3" s="1">
-        <v>13.500922</v>
+        <v>13.500921999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>900.853000</v>
+        <v>900.85299999999995</v>
       </c>
       <c r="D3" s="1">
-        <v>-181.838000</v>
+        <v>-181.83799999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>48613.408523</v>
+        <v>48613.408522999998</v>
       </c>
       <c r="G3" s="1">
-        <v>13.503725</v>
+        <v>13.503724999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>917.524000</v>
+        <v>917.524</v>
       </c>
       <c r="I3" s="1">
-        <v>-156.898000</v>
+        <v>-156.898</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>48623.579983</v>
+        <v>48623.579983000003</v>
       </c>
       <c r="L3" s="1">
-        <v>13.506550</v>
+        <v>13.506550000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>941.126000</v>
+        <v>941.12599999999998</v>
       </c>
       <c r="N3" s="1">
-        <v>-115.374000</v>
+        <v>-115.374</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>48634.085744</v>
+        <v>48634.085744000004</v>
       </c>
       <c r="Q3" s="1">
         <v>13.509468</v>
       </c>
       <c r="R3" s="1">
-        <v>948.603000</v>
+        <v>948.60299999999995</v>
       </c>
       <c r="S3" s="1">
-        <v>-101.517000</v>
+        <v>-101.517</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>48644.628211</v>
+        <v>48644.628211000003</v>
       </c>
       <c r="V3" s="1">
         <v>13.512397</v>
       </c>
       <c r="W3" s="1">
-        <v>955.794000</v>
+        <v>955.79399999999998</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.790800</v>
+        <v>-88.790800000000004</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>48655.082388</v>
+        <v>48655.082388000003</v>
       </c>
       <c r="AA3" s="1">
-        <v>13.515301</v>
+        <v>13.515300999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>963.764000</v>
+        <v>963.76400000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-79.983600</v>
+        <v>-79.983599999999996</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>48665.668006</v>
@@ -828,315 +1244,315 @@
         <v>13.518241</v>
       </c>
       <c r="AG3" s="1">
-        <v>969.100000</v>
+        <v>969.1</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.896800</v>
+        <v>-79.896799999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>48676.475367</v>
+        <v>48676.475366999999</v>
       </c>
       <c r="AK3" s="1">
         <v>13.521243</v>
       </c>
       <c r="AL3" s="1">
-        <v>977.201000</v>
+        <v>977.20100000000002</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.863700</v>
+        <v>-87.863699999999994</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>48687.012843</v>
+        <v>48687.012842999997</v>
       </c>
       <c r="AP3" s="1">
-        <v>13.524170</v>
+        <v>13.52417</v>
       </c>
       <c r="AQ3" s="1">
-        <v>986.543000</v>
+        <v>986.54300000000001</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.042000</v>
+        <v>-103.042</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>48697.966037</v>
+        <v>48697.966036999998</v>
       </c>
       <c r="AU3" s="1">
         <v>13.527213</v>
       </c>
       <c r="AV3" s="1">
-        <v>998.057000</v>
+        <v>998.05700000000002</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.803000</v>
+        <v>-124.803</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>48709.159227</v>
+        <v>48709.159226999996</v>
       </c>
       <c r="AZ3" s="1">
         <v>13.530322</v>
       </c>
       <c r="BA3" s="1">
-        <v>1007.810000</v>
+        <v>1007.81</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.689000</v>
+        <v>-143.68899999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>48720.094014</v>
+        <v>48720.094014000002</v>
       </c>
       <c r="BE3" s="1">
-        <v>13.533359</v>
+        <v>13.533359000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1053.420000</v>
+        <v>1053.42</v>
       </c>
       <c r="BG3" s="1">
-        <v>-228.965000</v>
+        <v>-228.965</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>48731.159760</v>
+        <v>48731.159760000002</v>
       </c>
       <c r="BJ3" s="1">
-        <v>13.536433</v>
+        <v>13.536433000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1133.140000</v>
+        <v>1133.1400000000001</v>
       </c>
       <c r="BL3" s="1">
-        <v>-365.685000</v>
+        <v>-365.685</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>48742.362904</v>
+        <v>48742.362904000001</v>
       </c>
       <c r="BO3" s="1">
         <v>13.539545</v>
       </c>
       <c r="BP3" s="1">
-        <v>1264.800000</v>
+        <v>1264.8</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-577.418000</v>
+        <v>-577.41800000000001</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>48752.727299</v>
+        <v>48752.727298999998</v>
       </c>
       <c r="BT3" s="1">
         <v>13.542424</v>
       </c>
       <c r="BU3" s="1">
-        <v>1412.200000</v>
+        <v>1412.2</v>
       </c>
       <c r="BV3" s="1">
-        <v>-803.861000</v>
+        <v>-803.86099999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>48763.426502</v>
+        <v>48763.426502000002</v>
       </c>
       <c r="BY3" s="1">
         <v>13.545396</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1575.060000</v>
+        <v>1575.06</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1040.730000</v>
+        <v>-1040.73</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>48774.745702</v>
       </c>
       <c r="CD3" s="1">
-        <v>13.548540</v>
+        <v>13.548539999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1985.790000</v>
+        <v>1985.79</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1595.920000</v>
+        <v>-1595.92</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>48603.661181</v>
+        <v>48603.661181000003</v>
       </c>
       <c r="B4" s="1">
-        <v>13.501017</v>
+        <v>13.501016999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>900.805000</v>
+        <v>900.80499999999995</v>
       </c>
       <c r="D4" s="1">
-        <v>-181.660000</v>
+        <v>-181.66</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>48613.721535</v>
+        <v>48613.721534999997</v>
       </c>
       <c r="G4" s="1">
         <v>13.503812</v>
       </c>
       <c r="H4" s="1">
-        <v>917.051000</v>
+        <v>917.05100000000004</v>
       </c>
       <c r="I4" s="1">
-        <v>-156.918000</v>
+        <v>-156.91800000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>48623.917794</v>
+        <v>48623.917794000001</v>
       </c>
       <c r="L4" s="1">
         <v>13.506644</v>
       </c>
       <c r="M4" s="1">
-        <v>941.081000</v>
+        <v>941.08100000000002</v>
       </c>
       <c r="N4" s="1">
-        <v>-115.410000</v>
+        <v>-115.41</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>48634.456753</v>
+        <v>48634.456752999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>13.509571</v>
+        <v>13.509570999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>948.567000</v>
+        <v>948.56700000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>-101.542000</v>
+        <v>-101.542</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>48644.971474</v>
+        <v>48644.971473999998</v>
       </c>
       <c r="V4" s="1">
         <v>13.512492</v>
       </c>
       <c r="W4" s="1">
-        <v>955.915000</v>
+        <v>955.91499999999996</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.897500</v>
+        <v>-88.897499999999994</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>48655.779268</v>
+        <v>48655.779267999998</v>
       </c>
       <c r="AA4" s="1">
         <v>13.515494</v>
       </c>
       <c r="AB4" s="1">
-        <v>963.805000</v>
+        <v>963.80499999999995</v>
       </c>
       <c r="AC4" s="1">
-        <v>-79.967000</v>
+        <v>-79.966999999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>48666.355002</v>
+        <v>48666.355001999997</v>
       </c>
       <c r="AF4" s="1">
-        <v>13.518432</v>
+        <v>13.518432000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>969.111000</v>
+        <v>969.11099999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.808800</v>
+        <v>-79.808800000000005</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>48676.825016</v>
+        <v>48676.825016000003</v>
       </c>
       <c r="AK4" s="1">
-        <v>13.521340</v>
+        <v>13.52134</v>
       </c>
       <c r="AL4" s="1">
-        <v>977.184000</v>
+        <v>977.18399999999997</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.884300</v>
+        <v>-87.884299999999996</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>48687.375913</v>
+        <v>48687.375913000003</v>
       </c>
       <c r="AP4" s="1">
-        <v>13.524271</v>
+        <v>13.524271000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>986.545000</v>
+        <v>986.54499999999996</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.042000</v>
+        <v>-103.042</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>48698.329599</v>
+        <v>48698.329598999997</v>
       </c>
       <c r="AU4" s="1">
-        <v>13.527314</v>
+        <v>13.527314000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>998.063000</v>
+        <v>998.06299999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.809000</v>
+        <v>-124.809</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>48709.825868</v>
@@ -1145,43 +1561,43 @@
         <v>13.530507</v>
       </c>
       <c r="BA4" s="1">
-        <v>1007.810000</v>
+        <v>1007.81</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.706000</v>
+        <v>-143.70599999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>48720.515615</v>
+        <v>48720.515614999997</v>
       </c>
       <c r="BE4" s="1">
         <v>13.533477</v>
       </c>
       <c r="BF4" s="1">
-        <v>1053.400000</v>
+        <v>1053.4000000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-228.951000</v>
+        <v>-228.95099999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>48731.636415</v>
+        <v>48731.636415000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>13.536566</v>
+        <v>13.536566000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1133.170000</v>
+        <v>1133.17</v>
       </c>
       <c r="BL4" s="1">
-        <v>-365.743000</v>
+        <v>-365.74299999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>48742.771858</v>
@@ -1190,589 +1606,589 @@
         <v>13.539659</v>
       </c>
       <c r="BP4" s="1">
-        <v>1264.740000</v>
+        <v>1264.74</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-577.399000</v>
+        <v>-577.399</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>48753.138979</v>
+        <v>48753.138979000003</v>
       </c>
       <c r="BT4" s="1">
         <v>13.542539</v>
       </c>
       <c r="BU4" s="1">
-        <v>1412.250000</v>
+        <v>1412.25</v>
       </c>
       <c r="BV4" s="1">
-        <v>-803.791000</v>
+        <v>-803.79100000000005</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>48763.880342</v>
+        <v>48763.880341999997</v>
       </c>
       <c r="BY4" s="1">
         <v>13.545522</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1575.030000</v>
+        <v>1575.03</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1040.690000</v>
+        <v>-1040.69</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>48775.288325</v>
+        <v>48775.288325000001</v>
       </c>
       <c r="CD4" s="1">
         <v>13.548691</v>
       </c>
       <c r="CE4" s="1">
-        <v>1987.020000</v>
+        <v>1987.02</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1593.840000</v>
+        <v>-1593.84</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>48604.002391</v>
+        <v>48604.002391000002</v>
       </c>
       <c r="B5" s="1">
-        <v>13.501112</v>
+        <v>13.501111999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>900.627000</v>
+        <v>900.62699999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-181.708000</v>
+        <v>-181.708</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>48614.064730</v>
+        <v>48614.064729999998</v>
       </c>
       <c r="G5" s="1">
         <v>13.503907</v>
       </c>
       <c r="H5" s="1">
-        <v>917.719000</v>
+        <v>917.71900000000005</v>
       </c>
       <c r="I5" s="1">
-        <v>-156.743000</v>
+        <v>-156.74299999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>48624.262491</v>
+        <v>48624.262491000001</v>
       </c>
       <c r="L5" s="1">
-        <v>13.506740</v>
+        <v>13.506740000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>941.241000</v>
+        <v>941.24099999999999</v>
       </c>
       <c r="N5" s="1">
-        <v>-115.425000</v>
+        <v>-115.425</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>48635.122880</v>
+        <v>48635.122880000003</v>
       </c>
       <c r="Q5" s="1">
-        <v>13.509756</v>
+        <v>13.509755999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>948.555000</v>
+        <v>948.55499999999995</v>
       </c>
       <c r="S5" s="1">
-        <v>-101.471000</v>
+        <v>-101.471</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>48645.660417</v>
+        <v>48645.660416999999</v>
       </c>
       <c r="V5" s="1">
-        <v>13.512683</v>
+        <v>13.512683000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>955.840000</v>
+        <v>955.84</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.966800</v>
+        <v>-88.966800000000006</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>48656.128957</v>
+        <v>48656.128957000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>13.515591</v>
+        <v>13.515591000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>963.744000</v>
+        <v>963.74400000000003</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.024100</v>
+        <v>-80.024100000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>48666.698233</v>
+        <v>48666.698233000003</v>
       </c>
       <c r="AF5" s="1">
-        <v>13.518527</v>
+        <v>13.518527000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>968.960000</v>
+        <v>968.96</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.805900</v>
+        <v>-79.805899999999994</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>48677.175720</v>
+        <v>48677.175719999999</v>
       </c>
       <c r="AK5" s="1">
         <v>13.521438</v>
       </c>
       <c r="AL5" s="1">
-        <v>977.201000</v>
+        <v>977.20100000000002</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.869200</v>
+        <v>-87.869200000000006</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>48688.051005</v>
+        <v>48688.051005000001</v>
       </c>
       <c r="AP5" s="1">
         <v>13.524459</v>
       </c>
       <c r="AQ5" s="1">
-        <v>986.533000</v>
+        <v>986.53300000000002</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.035000</v>
+        <v>-103.035</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>48698.999660</v>
+        <v>48698.999660000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>13.527500</v>
+        <v>13.5275</v>
       </c>
       <c r="AV5" s="1">
-        <v>998.059000</v>
+        <v>998.05899999999997</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.839000</v>
+        <v>-124.839</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>48710.233052</v>
+        <v>48710.233052000003</v>
       </c>
       <c r="AZ5" s="1">
-        <v>13.530620</v>
+        <v>13.530620000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1007.810000</v>
+        <v>1007.81</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.699000</v>
+        <v>-143.69900000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>48720.894093</v>
+        <v>48720.894093000003</v>
       </c>
       <c r="BE5" s="1">
-        <v>13.533582</v>
+        <v>13.533581999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1053.420000</v>
+        <v>1053.42</v>
       </c>
       <c r="BG5" s="1">
-        <v>-228.953000</v>
+        <v>-228.953</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>48732.008945</v>
+        <v>48732.008945000001</v>
       </c>
       <c r="BJ5" s="1">
         <v>13.536669</v>
       </c>
       <c r="BK5" s="1">
-        <v>1133.150000</v>
+        <v>1133.1500000000001</v>
       </c>
       <c r="BL5" s="1">
-        <v>-365.766000</v>
+        <v>-365.76600000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>48743.169393</v>
+        <v>48743.169392999996</v>
       </c>
       <c r="BO5" s="1">
         <v>13.539769</v>
       </c>
       <c r="BP5" s="1">
-        <v>1264.730000</v>
+        <v>1264.73</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-577.405000</v>
+        <v>-577.40499999999997</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>48753.570704</v>
+        <v>48753.570703999998</v>
       </c>
       <c r="BT5" s="1">
         <v>13.542659</v>
       </c>
       <c r="BU5" s="1">
-        <v>1412.240000</v>
+        <v>1412.24</v>
       </c>
       <c r="BV5" s="1">
-        <v>-803.814000</v>
+        <v>-803.81399999999996</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>48764.327764</v>
+        <v>48764.327764000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>13.545647</v>
+        <v>13.545647000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1575.220000</v>
+        <v>1575.22</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1040.920000</v>
+        <v>-1040.92</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>48775.826485</v>
+        <v>48775.826484999998</v>
       </c>
       <c r="CD5" s="1">
-        <v>13.548841</v>
+        <v>13.548840999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1985.400000</v>
+        <v>1985.4</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1594.810000</v>
+        <v>-1594.81</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>48604.344631</v>
       </c>
       <c r="B6" s="1">
-        <v>13.501207</v>
+        <v>13.501207000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>900.671000</v>
+        <v>900.67100000000005</v>
       </c>
       <c r="D6" s="1">
-        <v>-181.654000</v>
+        <v>-181.654</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>48614.410443</v>
+        <v>48614.410443000001</v>
       </c>
       <c r="G6" s="1">
-        <v>13.504003</v>
+        <v>13.504003000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>917.345000</v>
+        <v>917.34500000000003</v>
       </c>
       <c r="I6" s="1">
-        <v>-156.753000</v>
+        <v>-156.75299999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>48624.955884</v>
+        <v>48624.955884000003</v>
       </c>
       <c r="L6" s="1">
-        <v>13.506932</v>
+        <v>13.506932000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>941.116000</v>
+        <v>941.11599999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-115.512000</v>
+        <v>-115.512</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>48635.481245</v>
+        <v>48635.481245000003</v>
       </c>
       <c r="Q6" s="1">
-        <v>13.509856</v>
+        <v>13.509855999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>948.561000</v>
+        <v>948.56100000000004</v>
       </c>
       <c r="S6" s="1">
-        <v>-101.497000</v>
+        <v>-101.497</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>48646.008608</v>
+        <v>48646.008607999996</v>
       </c>
       <c r="V6" s="1">
-        <v>13.512780</v>
+        <v>13.512779999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>955.754000</v>
+        <v>955.75400000000002</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.809800</v>
+        <v>-88.809799999999996</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>48656.477666</v>
+        <v>48656.477665999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>13.515688</v>
+        <v>13.515688000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>963.776000</v>
+        <v>963.77599999999995</v>
       </c>
       <c r="AC6" s="1">
-        <v>-79.936000</v>
+        <v>-79.936000000000007</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>48667.043412</v>
+        <v>48667.043411999999</v>
       </c>
       <c r="AF6" s="1">
         <v>13.518623</v>
       </c>
       <c r="AG6" s="1">
-        <v>969.164000</v>
+        <v>969.16399999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.724200</v>
+        <v>-79.724199999999996</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>48677.840367</v>
+        <v>48677.840366999997</v>
       </c>
       <c r="AK6" s="1">
-        <v>13.521622</v>
+        <v>13.521622000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>977.198000</v>
+        <v>977.19799999999998</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.876900</v>
+        <v>-87.876900000000006</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>48688.482488</v>
+        <v>48688.482488000001</v>
       </c>
       <c r="AP6" s="1">
         <v>13.524578</v>
       </c>
       <c r="AQ6" s="1">
-        <v>986.527000</v>
+        <v>986.52700000000004</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.033000</v>
+        <v>-103.033</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>48699.460441</v>
+        <v>48699.460441000003</v>
       </c>
       <c r="AU6" s="1">
         <v>13.527628</v>
       </c>
       <c r="AV6" s="1">
-        <v>998.070000</v>
+        <v>998.07</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.825000</v>
+        <v>-124.825</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>48710.617485</v>
+        <v>48710.617485000002</v>
       </c>
       <c r="AZ6" s="1">
-        <v>13.530727</v>
+        <v>13.530727000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1007.800000</v>
+        <v>1007.8</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.691000</v>
+        <v>-143.691</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>48721.254653</v>
+        <v>48721.254653000004</v>
       </c>
       <c r="BE6" s="1">
-        <v>13.533682</v>
+        <v>13.533682000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1053.410000</v>
+        <v>1053.4100000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-228.960000</v>
+        <v>-228.96</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>48732.385900</v>
+        <v>48732.385900000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>13.536774</v>
+        <v>13.536773999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1133.130000</v>
+        <v>1133.1300000000001</v>
       </c>
       <c r="BL6" s="1">
-        <v>-365.705000</v>
+        <v>-365.70499999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>48743.588368</v>
+        <v>48743.588367999997</v>
       </c>
       <c r="BO6" s="1">
-        <v>13.539886</v>
+        <v>13.539885999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1264.780000</v>
+        <v>1264.78</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-577.405000</v>
+        <v>-577.40499999999997</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>48753.999537</v>
+        <v>48753.999537000003</v>
       </c>
       <c r="BT6" s="1">
         <v>13.542778</v>
       </c>
       <c r="BU6" s="1">
-        <v>1412.380000</v>
+        <v>1412.38</v>
       </c>
       <c r="BV6" s="1">
-        <v>-803.703000</v>
+        <v>-803.70299999999997</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>48764.787028</v>
+        <v>48764.787027999999</v>
       </c>
       <c r="BY6" s="1">
         <v>13.545774</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1575.100000</v>
+        <v>1575.1</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1040.770000</v>
+        <v>-1040.77</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>48776.366627</v>
+        <v>48776.366627000003</v>
       </c>
       <c r="CD6" s="1">
-        <v>13.548991</v>
+        <v>13.548990999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1987.130000</v>
+        <v>1987.13</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1595.570000</v>
+        <v>-1595.57</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>48605.024646</v>
+        <v>48605.024645999998</v>
       </c>
       <c r="B7" s="1">
         <v>13.501396</v>
       </c>
       <c r="C7" s="1">
-        <v>900.882000</v>
+        <v>900.88199999999995</v>
       </c>
       <c r="D7" s="1">
-        <v>-181.721000</v>
+        <v>-181.721</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>48615.097897</v>
@@ -1781,285 +2197,285 @@
         <v>13.504194</v>
       </c>
       <c r="H7" s="1">
-        <v>916.912000</v>
+        <v>916.91200000000003</v>
       </c>
       <c r="I7" s="1">
-        <v>-156.828000</v>
+        <v>-156.828</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>48625.304571</v>
+        <v>48625.304571000001</v>
       </c>
       <c r="L7" s="1">
-        <v>13.507029</v>
+        <v>13.507028999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>941.114000</v>
+        <v>941.11400000000003</v>
       </c>
       <c r="N7" s="1">
-        <v>-115.411000</v>
+        <v>-115.411</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>48635.830690</v>
+        <v>48635.830690000003</v>
       </c>
       <c r="Q7" s="1">
-        <v>13.509953</v>
+        <v>13.509952999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>948.596000</v>
+        <v>948.596</v>
       </c>
       <c r="S7" s="1">
-        <v>-101.499000</v>
+        <v>-101.499</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>48646.351343</v>
+        <v>48646.351343000002</v>
       </c>
       <c r="V7" s="1">
-        <v>13.512875</v>
+        <v>13.512874999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>955.788000</v>
+        <v>955.78800000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.715800</v>
+        <v>-88.715800000000002</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>48657.137313</v>
+        <v>48657.137312999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>13.515871</v>
+        <v>13.515871000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>963.810000</v>
+        <v>963.81</v>
       </c>
       <c r="AC7" s="1">
-        <v>-79.968700</v>
+        <v>-79.968699999999998</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>48667.696148</v>
+        <v>48667.696148000003</v>
       </c>
       <c r="AF7" s="1">
-        <v>13.518804</v>
+        <v>13.518803999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>968.890000</v>
+        <v>968.89</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.756800</v>
+        <v>-79.756799999999998</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>48678.219798</v>
+        <v>48678.219797999998</v>
       </c>
       <c r="AK7" s="1">
         <v>13.521728</v>
       </c>
       <c r="AL7" s="1">
-        <v>977.218000</v>
+        <v>977.21799999999996</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.894600</v>
+        <v>-87.894599999999997</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>48688.844103</v>
+        <v>48688.844103000003</v>
       </c>
       <c r="AP7" s="1">
-        <v>13.524679</v>
+        <v>13.524679000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>986.527000</v>
+        <v>986.52700000000004</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.053000</v>
+        <v>-103.053</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>48699.824041</v>
       </c>
       <c r="AU7" s="1">
-        <v>13.527729</v>
+        <v>13.527729000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>998.077000</v>
+        <v>998.077</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.810000</v>
+        <v>-124.81</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>48710.975098</v>
+        <v>48710.975098000003</v>
       </c>
       <c r="AZ7" s="1">
-        <v>13.530826</v>
+        <v>13.530825999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1007.800000</v>
+        <v>1007.8</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.727000</v>
+        <v>-143.727</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>48721.678236</v>
       </c>
       <c r="BE7" s="1">
-        <v>13.533800</v>
+        <v>13.533799999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1053.420000</v>
+        <v>1053.42</v>
       </c>
       <c r="BG7" s="1">
-        <v>-228.975000</v>
+        <v>-228.97499999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>48732.803501</v>
+        <v>48732.803501000002</v>
       </c>
       <c r="BJ7" s="1">
-        <v>13.536890</v>
+        <v>13.53689</v>
       </c>
       <c r="BK7" s="1">
-        <v>1133.140000</v>
+        <v>1133.1400000000001</v>
       </c>
       <c r="BL7" s="1">
-        <v>-365.668000</v>
+        <v>-365.66800000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>48743.986834</v>
+        <v>48743.986834000003</v>
       </c>
       <c r="BO7" s="1">
         <v>13.539996</v>
       </c>
       <c r="BP7" s="1">
-        <v>1264.770000</v>
+        <v>1264.77</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-577.402000</v>
+        <v>-577.40200000000004</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>48754.410267</v>
+        <v>48754.410266999999</v>
       </c>
       <c r="BT7" s="1">
         <v>13.542892</v>
       </c>
       <c r="BU7" s="1">
-        <v>1412.440000</v>
+        <v>1412.44</v>
       </c>
       <c r="BV7" s="1">
-        <v>-803.763000</v>
+        <v>-803.76300000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>48765.235412</v>
+        <v>48765.235412000002</v>
       </c>
       <c r="BY7" s="1">
         <v>13.545899</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1574.950000</v>
+        <v>1574.95</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1040.740000</v>
+        <v>-1040.74</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>48776.907763</v>
+        <v>48776.907763000003</v>
       </c>
       <c r="CD7" s="1">
-        <v>13.549141</v>
+        <v>13.549141000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1985.940000</v>
+        <v>1985.94</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1593.840000</v>
+        <v>-1593.84</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>48605.370358</v>
       </c>
       <c r="B8" s="1">
-        <v>13.501492</v>
+        <v>13.501492000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>900.720000</v>
+        <v>900.72</v>
       </c>
       <c r="D8" s="1">
-        <v>-181.801000</v>
+        <v>-181.80099999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>48615.441129</v>
+        <v>48615.441128999999</v>
       </c>
       <c r="G8" s="1">
         <v>13.504289</v>
       </c>
       <c r="H8" s="1">
-        <v>917.343000</v>
+        <v>917.34299999999996</v>
       </c>
       <c r="I8" s="1">
-        <v>-156.653000</v>
+        <v>-156.65299999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>48625.648847</v>
+        <v>48625.648846999997</v>
       </c>
       <c r="L8" s="1">
         <v>13.507125</v>
       </c>
       <c r="M8" s="1">
-        <v>941.236000</v>
+        <v>941.23599999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-115.481000</v>
+        <v>-115.48099999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>48636.487406</v>
@@ -2068,255 +2484,255 @@
         <v>13.510135</v>
       </c>
       <c r="R8" s="1">
-        <v>948.580000</v>
+        <v>948.58</v>
       </c>
       <c r="S8" s="1">
-        <v>-101.531000</v>
+        <v>-101.53100000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>48647.008510</v>
+        <v>48647.00851</v>
       </c>
       <c r="V8" s="1">
-        <v>13.513058</v>
+        <v>13.513057999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>955.886000</v>
+        <v>955.88599999999997</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.772500</v>
+        <v>-88.772499999999994</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>48657.521216</v>
+        <v>48657.521216000001</v>
       </c>
       <c r="AA8" s="1">
         <v>13.515978</v>
       </c>
       <c r="AB8" s="1">
-        <v>963.819000</v>
+        <v>963.81899999999996</v>
       </c>
       <c r="AC8" s="1">
-        <v>-79.988800</v>
+        <v>-79.988799999999998</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>48668.077572</v>
+        <v>48668.077572000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>13.518910</v>
+        <v>13.51891</v>
       </c>
       <c r="AG8" s="1">
-        <v>969.126000</v>
+        <v>969.12599999999998</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.877000</v>
+        <v>-79.876999999999995</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>48678.565503</v>
+        <v>48678.565502999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>13.521824</v>
+        <v>13.521824000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>977.200000</v>
+        <v>977.2</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.897500</v>
+        <v>-87.897499999999994</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>48689.202679</v>
+        <v>48689.202679000002</v>
       </c>
       <c r="AP8" s="1">
-        <v>13.524779</v>
+        <v>13.524779000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>986.557000</v>
+        <v>986.55700000000002</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.019000</v>
+        <v>-103.01900000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>48700.191050</v>
+        <v>48700.191050000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>13.527831</v>
+        <v>13.527831000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>998.067000</v>
+        <v>998.06700000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.841000</v>
+        <v>-124.84099999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>48711.398155</v>
+        <v>48711.398155000003</v>
       </c>
       <c r="AZ8" s="1">
         <v>13.530944</v>
       </c>
       <c r="BA8" s="1">
-        <v>1007.810000</v>
+        <v>1007.81</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.694000</v>
+        <v>-143.69399999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>48721.978316</v>
+        <v>48721.978316000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>13.533883</v>
+        <v>13.533882999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1053.420000</v>
+        <v>1053.42</v>
       </c>
       <c r="BG8" s="1">
-        <v>-228.951000</v>
+        <v>-228.95099999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>48733.161613</v>
+        <v>48733.161612999997</v>
       </c>
       <c r="BJ8" s="1">
         <v>13.536989</v>
       </c>
       <c r="BK8" s="1">
-        <v>1133.180000</v>
+        <v>1133.18</v>
       </c>
       <c r="BL8" s="1">
-        <v>-365.746000</v>
+        <v>-365.74599999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>48744.405436</v>
+        <v>48744.405436000001</v>
       </c>
       <c r="BO8" s="1">
         <v>13.540113</v>
       </c>
       <c r="BP8" s="1">
-        <v>1264.750000</v>
+        <v>1264.75</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-577.452000</v>
+        <v>-577.452</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>48754.843232</v>
+        <v>48754.843231999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>13.543012</v>
+        <v>13.543011999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1412.500000</v>
+        <v>1412.5</v>
       </c>
       <c r="BV8" s="1">
-        <v>-803.709000</v>
+        <v>-803.70899999999995</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>48765.691731</v>
+        <v>48765.691730999999</v>
       </c>
       <c r="BY8" s="1">
         <v>13.546025</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1575.100000</v>
+        <v>1575.1</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1040.910000</v>
+        <v>-1040.9100000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>48777.444931</v>
+        <v>48777.444930999998</v>
       </c>
       <c r="CD8" s="1">
-        <v>13.549290</v>
+        <v>13.549289999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1985.670000</v>
+        <v>1985.67</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1595.930000</v>
+        <v>-1595.93</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>48605.715575</v>
+        <v>48605.715575000002</v>
       </c>
       <c r="B9" s="1">
         <v>13.501588</v>
       </c>
       <c r="C9" s="1">
-        <v>900.855000</v>
+        <v>900.85500000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-181.544000</v>
+        <v>-181.54400000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>48615.787832</v>
+        <v>48615.787832000002</v>
       </c>
       <c r="G9" s="1">
         <v>13.504386</v>
       </c>
       <c r="H9" s="1">
-        <v>917.155000</v>
+        <v>917.15499999999997</v>
       </c>
       <c r="I9" s="1">
-        <v>-156.438000</v>
+        <v>-156.43799999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>48626.295578</v>
+        <v>48626.295577999997</v>
       </c>
       <c r="L9" s="1">
         <v>13.507304</v>
       </c>
       <c r="M9" s="1">
-        <v>941.350000</v>
+        <v>941.35</v>
       </c>
       <c r="N9" s="1">
-        <v>-115.480000</v>
+        <v>-115.48</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>48636.878717</v>
@@ -2325,587 +2741,587 @@
         <v>13.510244</v>
       </c>
       <c r="R9" s="1">
-        <v>948.549000</v>
+        <v>948.54899999999998</v>
       </c>
       <c r="S9" s="1">
-        <v>-101.514000</v>
+        <v>-101.514</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>48647.381998</v>
+        <v>48647.381997999997</v>
       </c>
       <c r="V9" s="1">
-        <v>13.513162</v>
+        <v>13.513161999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>955.802000</v>
+        <v>955.80200000000002</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.724500</v>
+        <v>-88.724500000000006</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>48657.866432</v>
+        <v>48657.866432000003</v>
       </c>
       <c r="AA9" s="1">
         <v>13.516074</v>
       </c>
       <c r="AB9" s="1">
-        <v>963.807000</v>
+        <v>963.80700000000002</v>
       </c>
       <c r="AC9" s="1">
-        <v>-79.951100</v>
+        <v>-79.951099999999997</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>48668.425266</v>
+        <v>48668.425265999998</v>
       </c>
       <c r="AF9" s="1">
         <v>13.519007</v>
       </c>
       <c r="AG9" s="1">
-        <v>968.861000</v>
+        <v>968.86099999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.884100</v>
+        <v>-79.884100000000004</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>48678.915653</v>
+        <v>48678.915652999996</v>
       </c>
       <c r="AK9" s="1">
-        <v>13.521921</v>
+        <v>13.521921000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>977.208000</v>
+        <v>977.20799999999997</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.871700</v>
+        <v>-87.871700000000004</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>48689.627254</v>
+        <v>48689.627253999999</v>
       </c>
       <c r="AP9" s="1">
         <v>13.524896</v>
       </c>
       <c r="AQ9" s="1">
-        <v>986.543000</v>
+        <v>986.54300000000001</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.047000</v>
+        <v>-103.047</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>48700.636953</v>
+        <v>48700.636953000001</v>
       </c>
       <c r="AU9" s="1">
         <v>13.527955</v>
       </c>
       <c r="AV9" s="1">
-        <v>998.070000</v>
+        <v>998.07</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.823000</v>
+        <v>-124.82299999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>48711.694761</v>
+        <v>48711.694760999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>13.531026</v>
+        <v>13.531026000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1007.810000</v>
+        <v>1007.81</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.711000</v>
+        <v>-143.71100000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>48722.337915</v>
+        <v>48722.337914999996</v>
       </c>
       <c r="BE9" s="1">
-        <v>13.533983</v>
+        <v>13.533982999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1053.410000</v>
+        <v>1053.4100000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-228.965000</v>
+        <v>-228.965</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>48733.539175</v>
+        <v>48733.539174999998</v>
       </c>
       <c r="BJ9" s="1">
         <v>13.537094</v>
       </c>
       <c r="BK9" s="1">
-        <v>1133.090000</v>
+        <v>1133.0899999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-365.712000</v>
+        <v>-365.71199999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>48744.802719</v>
+        <v>48744.802718999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>13.540223</v>
+        <v>13.540222999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1264.760000</v>
+        <v>1264.76</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-577.410000</v>
+        <v>-577.41</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>48755.269793</v>
+        <v>48755.269792999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>13.543130</v>
+        <v>13.54313</v>
       </c>
       <c r="BU9" s="1">
-        <v>1412.560000</v>
+        <v>1412.56</v>
       </c>
       <c r="BV9" s="1">
-        <v>-803.580000</v>
+        <v>-803.58</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>48766.139650</v>
+        <v>48766.139649999997</v>
       </c>
       <c r="BY9" s="1">
-        <v>13.546150</v>
+        <v>13.546150000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1575.070000</v>
+        <v>1575.07</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1040.750000</v>
+        <v>-1040.75</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>48777.988050</v>
+        <v>48777.98805</v>
       </c>
       <c r="CD9" s="1">
         <v>13.549441</v>
       </c>
       <c r="CE9" s="1">
-        <v>1987.160000</v>
+        <v>1987.16</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1594.120000</v>
+        <v>-1594.12</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>48606.361364</v>
+        <v>48606.361363999997</v>
       </c>
       <c r="B10" s="1">
-        <v>13.501767</v>
+        <v>13.501766999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>900.702000</v>
+        <v>900.702</v>
       </c>
       <c r="D10" s="1">
-        <v>-181.656000</v>
+        <v>-181.65600000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>48616.443543</v>
+        <v>48616.443543000001</v>
       </c>
       <c r="G10" s="1">
-        <v>13.504568</v>
+        <v>13.504568000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>917.480000</v>
+        <v>917.48</v>
       </c>
       <c r="I10" s="1">
-        <v>-156.933000</v>
+        <v>-156.93299999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>48626.689929</v>
       </c>
       <c r="L10" s="1">
-        <v>13.507414</v>
+        <v>13.507414000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>941.207000</v>
+        <v>941.20699999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-115.480000</v>
+        <v>-115.48</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>48637.225915</v>
+        <v>48637.225915000003</v>
       </c>
       <c r="Q10" s="1">
         <v>13.510341</v>
       </c>
       <c r="R10" s="1">
-        <v>948.517000</v>
+        <v>948.51700000000005</v>
       </c>
       <c r="S10" s="1">
-        <v>-101.501000</v>
+        <v>-101.501</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>48647.723742</v>
+        <v>48647.723742000002</v>
       </c>
       <c r="V10" s="1">
-        <v>13.513257</v>
+        <v>13.513256999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>955.862000</v>
+        <v>955.86199999999997</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.799100</v>
+        <v>-88.799099999999996</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>48658.220577</v>
       </c>
       <c r="AA10" s="1">
-        <v>13.516172</v>
+        <v>13.516171999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>963.776000</v>
+        <v>963.77599999999995</v>
       </c>
       <c r="AC10" s="1">
-        <v>-79.860200</v>
+        <v>-79.860200000000006</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>48668.841938</v>
+        <v>48668.841937999998</v>
       </c>
       <c r="AF10" s="1">
         <v>13.519123</v>
       </c>
       <c r="AG10" s="1">
-        <v>968.953000</v>
+        <v>968.95299999999997</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.865300</v>
+        <v>-79.865300000000005</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>48679.344196</v>
+        <v>48679.344195999998</v>
       </c>
       <c r="AK10" s="1">
-        <v>13.522040</v>
+        <v>13.522040000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>977.203000</v>
+        <v>977.20299999999997</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.874800</v>
+        <v>-87.874799999999993</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>48689.923397</v>
+        <v>48689.923396999999</v>
       </c>
       <c r="AP10" s="1">
         <v>13.524979</v>
       </c>
       <c r="AQ10" s="1">
-        <v>986.528000</v>
+        <v>986.52800000000002</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.050000</v>
+        <v>-103.05</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>48700.923180</v>
+        <v>48700.923179999998</v>
       </c>
       <c r="AU10" s="1">
         <v>13.528034</v>
       </c>
       <c r="AV10" s="1">
-        <v>998.045000</v>
+        <v>998.04499999999996</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.823000</v>
+        <v>-124.82299999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>48712.054858</v>
+        <v>48712.054858000003</v>
       </c>
       <c r="AZ10" s="1">
         <v>13.531126</v>
       </c>
       <c r="BA10" s="1">
-        <v>1007.810000</v>
+        <v>1007.81</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.727000</v>
+        <v>-143.727</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>48722.699995</v>
+        <v>48722.699995000003</v>
       </c>
       <c r="BE10" s="1">
-        <v>13.534083</v>
+        <v>13.534083000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1053.390000</v>
+        <v>1053.3900000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-228.957000</v>
+        <v>-228.95699999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>48733.913548</v>
+        <v>48733.913547999997</v>
       </c>
       <c r="BJ10" s="1">
         <v>13.537198</v>
       </c>
       <c r="BK10" s="1">
-        <v>1133.090000</v>
+        <v>1133.0899999999999</v>
       </c>
       <c r="BL10" s="1">
-        <v>-365.680000</v>
+        <v>-365.68</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>48745.226829</v>
+        <v>48745.226828999999</v>
       </c>
       <c r="BO10" s="1">
         <v>13.540341</v>
       </c>
       <c r="BP10" s="1">
-        <v>1264.770000</v>
+        <v>1264.77</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-577.412000</v>
+        <v>-577.41200000000003</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>48755.678993</v>
+        <v>48755.678993000001</v>
       </c>
       <c r="BT10" s="1">
         <v>13.543244</v>
       </c>
       <c r="BU10" s="1">
-        <v>1412.660000</v>
+        <v>1412.66</v>
       </c>
       <c r="BV10" s="1">
-        <v>-803.596000</v>
+        <v>-803.596</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>48766.595442</v>
+        <v>48766.595441999998</v>
       </c>
       <c r="BY10" s="1">
         <v>13.546277</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1575.070000</v>
+        <v>1575.07</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1040.810000</v>
+        <v>-1040.81</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>48778.527698</v>
+        <v>48778.527697999998</v>
       </c>
       <c r="CD10" s="1">
-        <v>13.549591</v>
+        <v>13.549590999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1985.480000</v>
+        <v>1985.48</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1594.480000</v>
+        <v>-1594.48</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>48606.737333</v>
+        <v>48606.737332999997</v>
       </c>
       <c r="B11" s="1">
         <v>13.501871</v>
       </c>
       <c r="C11" s="1">
-        <v>900.737000</v>
+        <v>900.73699999999997</v>
       </c>
       <c r="D11" s="1">
-        <v>-181.510000</v>
+        <v>-181.51</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>48616.820504</v>
+        <v>48616.820504000003</v>
       </c>
       <c r="G11" s="1">
-        <v>13.504672</v>
+        <v>13.504671999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>917.724000</v>
+        <v>917.72400000000005</v>
       </c>
       <c r="I11" s="1">
-        <v>-156.826000</v>
+        <v>-156.82599999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>48627.032155</v>
+        <v>48627.032155000001</v>
       </c>
       <c r="L11" s="1">
-        <v>13.507509</v>
+        <v>13.507509000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>941.248000</v>
+        <v>941.24800000000005</v>
       </c>
       <c r="N11" s="1">
-        <v>-115.487000</v>
+        <v>-115.48699999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>48637.575131</v>
+        <v>48637.575130999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>13.510438</v>
+        <v>13.510438000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>948.612000</v>
+        <v>948.61199999999997</v>
       </c>
       <c r="S11" s="1">
-        <v>-101.504000</v>
+        <v>-101.504</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>48648.068958</v>
+        <v>48648.068958000003</v>
       </c>
       <c r="V11" s="1">
-        <v>13.513352</v>
+        <v>13.513351999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>955.937000</v>
+        <v>955.93700000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.710600</v>
+        <v>-88.710599999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>48658.651139</v>
+        <v>48658.651139000001</v>
       </c>
       <c r="AA11" s="1">
         <v>13.516292</v>
       </c>
       <c r="AB11" s="1">
-        <v>963.793000</v>
+        <v>963.79300000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-79.760200</v>
+        <v>-79.760199999999998</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>48669.132102</v>
+        <v>48669.132102000003</v>
       </c>
       <c r="AF11" s="1">
-        <v>13.519203</v>
+        <v>13.519202999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>969.107000</v>
+        <v>969.10699999999997</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.815800</v>
+        <v>-79.815799999999996</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>48679.614548</v>
+        <v>48679.614547999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>13.522115</v>
+        <v>13.522114999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>977.212000</v>
+        <v>977.21199999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.884600</v>
+        <v>-87.884600000000006</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>48690.283959</v>
@@ -2914,180 +3330,180 @@
         <v>13.525079</v>
       </c>
       <c r="AQ11" s="1">
-        <v>986.544000</v>
+        <v>986.54399999999998</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.035000</v>
+        <v>-103.035</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>48701.283280</v>
+        <v>48701.283280000003</v>
       </c>
       <c r="AU11" s="1">
         <v>13.528134</v>
       </c>
       <c r="AV11" s="1">
-        <v>998.070000</v>
+        <v>998.07</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.826000</v>
+        <v>-124.82599999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>48712.413997</v>
+        <v>48712.413997000003</v>
       </c>
       <c r="AZ11" s="1">
         <v>13.531226</v>
       </c>
       <c r="BA11" s="1">
-        <v>1007.800000</v>
+        <v>1007.8</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.697000</v>
+        <v>-143.697</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>48723.424186</v>
+        <v>48723.424185999997</v>
       </c>
       <c r="BE11" s="1">
         <v>13.534284</v>
       </c>
       <c r="BF11" s="1">
-        <v>1053.420000</v>
+        <v>1053.42</v>
       </c>
       <c r="BG11" s="1">
-        <v>-228.975000</v>
+        <v>-228.97499999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>48734.689292</v>
+        <v>48734.689292000003</v>
       </c>
       <c r="BJ11" s="1">
         <v>13.537414</v>
       </c>
       <c r="BK11" s="1">
-        <v>1133.170000</v>
+        <v>1133.17</v>
       </c>
       <c r="BL11" s="1">
-        <v>-365.693000</v>
+        <v>-365.69299999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>48745.618638</v>
       </c>
       <c r="BO11" s="1">
-        <v>13.540450</v>
+        <v>13.54045</v>
       </c>
       <c r="BP11" s="1">
-        <v>1264.750000</v>
+        <v>1264.75</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-577.424000</v>
+        <v>-577.42399999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>48756.112031</v>
+        <v>48756.112030999997</v>
       </c>
       <c r="BT11" s="1">
         <v>13.543364</v>
       </c>
       <c r="BU11" s="1">
-        <v>1412.680000</v>
+        <v>1412.68</v>
       </c>
       <c r="BV11" s="1">
-        <v>-803.584000</v>
+        <v>-803.58399999999995</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>48767.046333</v>
+        <v>48767.046332999998</v>
       </c>
       <c r="BY11" s="1">
         <v>13.546402</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1575.180000</v>
+        <v>1575.18</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1040.820000</v>
+        <v>-1040.82</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>48779.376351</v>
+        <v>48779.376350999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>13.549827</v>
+        <v>13.549827000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1986.740000</v>
+        <v>1986.74</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1594.130000</v>
+        <v>-1594.13</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>48607.081060</v>
+        <v>48607.081059999997</v>
       </c>
       <c r="B12" s="1">
         <v>13.501967</v>
       </c>
       <c r="C12" s="1">
-        <v>900.763000</v>
+        <v>900.76300000000003</v>
       </c>
       <c r="D12" s="1">
-        <v>-181.801000</v>
+        <v>-181.80099999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>48617.164231</v>
+        <v>48617.164231000002</v>
       </c>
       <c r="G12" s="1">
         <v>13.504768</v>
       </c>
       <c r="H12" s="1">
-        <v>917.890000</v>
+        <v>917.89</v>
       </c>
       <c r="I12" s="1">
-        <v>-156.677000</v>
+        <v>-156.67699999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>48627.378345</v>
+        <v>48627.378344999997</v>
       </c>
       <c r="L12" s="1">
         <v>13.507605</v>
       </c>
       <c r="M12" s="1">
-        <v>941.150000</v>
+        <v>941.15</v>
       </c>
       <c r="N12" s="1">
-        <v>-115.472000</v>
+        <v>-115.47199999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>48638.004171</v>
@@ -3096,468 +3512,468 @@
         <v>13.510557</v>
       </c>
       <c r="R12" s="1">
-        <v>948.582000</v>
+        <v>948.58199999999999</v>
       </c>
       <c r="S12" s="1">
-        <v>-101.475000</v>
+        <v>-101.47499999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>48648.488574</v>
+        <v>48648.488574000003</v>
       </c>
       <c r="V12" s="1">
-        <v>13.513469</v>
+        <v>13.513469000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>955.918000</v>
+        <v>955.91800000000001</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.777900</v>
+        <v>-88.777900000000002</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>48658.929892</v>
       </c>
       <c r="AA12" s="1">
-        <v>13.516369</v>
+        <v>13.516368999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>963.809000</v>
+        <v>963.80899999999997</v>
       </c>
       <c r="AC12" s="1">
-        <v>-79.992100</v>
+        <v>-79.992099999999994</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>48669.473842</v>
+        <v>48669.473841999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>13.519298</v>
+        <v>13.519297999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>968.978000</v>
+        <v>968.97799999999995</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.712600</v>
+        <v>-79.712599999999995</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>48679.961252</v>
+        <v>48679.961252000001</v>
       </c>
       <c r="AK12" s="1">
         <v>13.522211</v>
       </c>
       <c r="AL12" s="1">
-        <v>977.193000</v>
+        <v>977.19299999999998</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.875400</v>
+        <v>-87.875399999999999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>48690.644550</v>
+        <v>48690.644549999997</v>
       </c>
       <c r="AP12" s="1">
         <v>13.525179</v>
       </c>
       <c r="AQ12" s="1">
-        <v>986.548000</v>
+        <v>986.548</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.012000</v>
+        <v>-103.012</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>48701.969743</v>
+        <v>48701.969743000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>13.528325</v>
+        <v>13.528325000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>998.054000</v>
+        <v>998.05399999999997</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.833000</v>
+        <v>-124.833</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>48713.134647</v>
+        <v>48713.134646999999</v>
       </c>
       <c r="AZ12" s="1">
         <v>13.531426</v>
       </c>
       <c r="BA12" s="1">
-        <v>1007.810000</v>
+        <v>1007.81</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.698000</v>
+        <v>-143.69800000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>48723.811529</v>
+        <v>48723.811528999999</v>
       </c>
       <c r="BE12" s="1">
         <v>13.534392</v>
       </c>
       <c r="BF12" s="1">
-        <v>1053.430000</v>
+        <v>1053.43</v>
       </c>
       <c r="BG12" s="1">
-        <v>-228.950000</v>
+        <v>-228.95</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>48735.070220</v>
+        <v>48735.070220000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>13.537520</v>
+        <v>13.537520000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1133.140000</v>
+        <v>1133.1400000000001</v>
       </c>
       <c r="BL12" s="1">
-        <v>-365.757000</v>
+        <v>-365.75700000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>48746.038038</v>
+        <v>48746.038037999999</v>
       </c>
       <c r="BO12" s="1">
         <v>13.540566</v>
       </c>
       <c r="BP12" s="1">
-        <v>1264.750000</v>
+        <v>1264.75</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-577.403000</v>
+        <v>-577.40300000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>48756.841119</v>
+        <v>48756.841118999997</v>
       </c>
       <c r="BT12" s="1">
-        <v>13.543567</v>
+        <v>13.543566999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1412.720000</v>
+        <v>1412.72</v>
       </c>
       <c r="BV12" s="1">
-        <v>-803.702000</v>
+        <v>-803.702</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>48767.831014</v>
+        <v>48767.831014000003</v>
       </c>
       <c r="BY12" s="1">
-        <v>13.546620</v>
+        <v>13.546620000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1575.000000</v>
+        <v>1575</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1040.850000</v>
+        <v>-1040.8499999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>48779.605536</v>
+        <v>48779.605536000003</v>
       </c>
       <c r="CD12" s="1">
-        <v>13.549890</v>
+        <v>13.54989</v>
       </c>
       <c r="CE12" s="1">
-        <v>1987.090000</v>
+        <v>1987.09</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1594.090000</v>
+        <v>-1594.09</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>48607.422344</v>
+        <v>48607.422343999999</v>
       </c>
       <c r="B13" s="1">
         <v>13.502062</v>
       </c>
       <c r="C13" s="1">
-        <v>900.847000</v>
+        <v>900.84699999999998</v>
       </c>
       <c r="D13" s="1">
-        <v>-181.654000</v>
+        <v>-181.654</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>48617.512917</v>
       </c>
       <c r="G13" s="1">
-        <v>13.504865</v>
+        <v>13.504865000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>917.536000</v>
+        <v>917.53599999999994</v>
       </c>
       <c r="I13" s="1">
-        <v>-156.597000</v>
+        <v>-156.59700000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>48627.802952</v>
+        <v>48627.802951999998</v>
       </c>
       <c r="L13" s="1">
         <v>13.507723</v>
       </c>
       <c r="M13" s="1">
-        <v>941.181000</v>
+        <v>941.18100000000004</v>
       </c>
       <c r="N13" s="1">
-        <v>-115.437000</v>
+        <v>-115.437</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>48638.279915</v>
+        <v>48638.279914999999</v>
       </c>
       <c r="Q13" s="1">
         <v>13.510633</v>
       </c>
       <c r="R13" s="1">
-        <v>948.575000</v>
+        <v>948.57500000000005</v>
       </c>
       <c r="S13" s="1">
-        <v>-101.510000</v>
+        <v>-101.51</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>48648.758398</v>
+        <v>48648.758397999998</v>
       </c>
       <c r="V13" s="1">
         <v>13.513544</v>
       </c>
       <c r="W13" s="1">
-        <v>955.916000</v>
+        <v>955.91600000000005</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.640600</v>
+        <v>-88.640600000000006</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>48659.280030</v>
+        <v>48659.280030000002</v>
       </c>
       <c r="AA13" s="1">
         <v>13.516467</v>
       </c>
       <c r="AB13" s="1">
-        <v>963.825000</v>
+        <v>963.82500000000005</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.031800</v>
+        <v>-80.031800000000004</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>48669.815587</v>
+        <v>48669.815586999997</v>
       </c>
       <c r="AF13" s="1">
-        <v>13.519393</v>
+        <v>13.519393000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>969.070000</v>
+        <v>969.07</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.918200</v>
+        <v>-79.918199999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>48680.312387</v>
+        <v>48680.312386999998</v>
       </c>
       <c r="AK13" s="1">
         <v>13.522309</v>
       </c>
       <c r="AL13" s="1">
-        <v>977.224000</v>
+        <v>977.22400000000005</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.875700</v>
+        <v>-87.875699999999995</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>48691.367748</v>
+        <v>48691.367747999997</v>
       </c>
       <c r="AP13" s="1">
-        <v>13.525380</v>
+        <v>13.52538</v>
       </c>
       <c r="AQ13" s="1">
-        <v>986.536000</v>
+        <v>986.53599999999994</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.025000</v>
+        <v>-103.02500000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>48702.398282</v>
+        <v>48702.398282000002</v>
       </c>
       <c r="AU13" s="1">
         <v>13.528444</v>
       </c>
       <c r="AV13" s="1">
-        <v>998.057000</v>
+        <v>998.05700000000002</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.803000</v>
+        <v>-124.803</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>48713.513126</v>
+        <v>48713.513125999998</v>
       </c>
       <c r="AZ13" s="1">
-        <v>13.531531</v>
+        <v>13.531530999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1007.800000</v>
+        <v>1007.8</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.709000</v>
+        <v>-143.709</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>48724.171625</v>
+        <v>48724.171625000003</v>
       </c>
       <c r="BE13" s="1">
         <v>13.534492</v>
       </c>
       <c r="BF13" s="1">
-        <v>1053.410000</v>
+        <v>1053.4100000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-228.961000</v>
+        <v>-228.96100000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>48735.440763</v>
+        <v>48735.440762999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>13.537622</v>
+        <v>13.537622000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1133.130000</v>
+        <v>1133.1300000000001</v>
       </c>
       <c r="BL13" s="1">
-        <v>-365.691000</v>
+        <v>-365.69099999999997</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>48746.737611</v>
+        <v>48746.737610999997</v>
       </c>
       <c r="BO13" s="1">
-        <v>13.540760</v>
+        <v>13.540760000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1264.770000</v>
+        <v>1264.77</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-577.400000</v>
+        <v>-577.4</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>48756.986941</v>
+        <v>48756.986941000003</v>
       </c>
       <c r="BT13" s="1">
         <v>13.543607</v>
       </c>
       <c r="BU13" s="1">
-        <v>1412.870000</v>
+        <v>1412.87</v>
       </c>
       <c r="BV13" s="1">
-        <v>-803.721000</v>
+        <v>-803.721</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>48767.952991</v>
+        <v>48767.952990999998</v>
       </c>
       <c r="BY13" s="1">
         <v>13.546654</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1575.000000</v>
+        <v>1575</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1040.930000</v>
+        <v>-1040.93</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>48780.126334</v>
       </c>
       <c r="CD13" s="1">
-        <v>13.550035</v>
+        <v>13.550034999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1985.350000</v>
+        <v>1985.35</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1594.480000</v>
+        <v>-1594.48</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>48607.845427</v>
       </c>
@@ -3565,43 +3981,43 @@
         <v>13.502179</v>
       </c>
       <c r="C14" s="1">
-        <v>900.670000</v>
+        <v>900.67</v>
       </c>
       <c r="D14" s="1">
-        <v>-181.518000</v>
+        <v>-181.518</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>48617.982133</v>
+        <v>48617.982132999998</v>
       </c>
       <c r="G14" s="1">
-        <v>13.504995</v>
+        <v>13.504994999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>917.451000</v>
+        <v>917.45100000000002</v>
       </c>
       <c r="I14" s="1">
-        <v>-156.574000</v>
+        <v>-156.57400000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>48628.081841</v>
+        <v>48628.081840999999</v>
       </c>
       <c r="L14" s="1">
-        <v>13.507801</v>
+        <v>13.507801000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>941.163000</v>
+        <v>941.16300000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-115.499000</v>
+        <v>-115.499</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>48638.631577</v>
@@ -3610,193 +4026,193 @@
         <v>13.510731</v>
       </c>
       <c r="R14" s="1">
-        <v>948.616000</v>
+        <v>948.61599999999999</v>
       </c>
       <c r="S14" s="1">
-        <v>-101.541000</v>
+        <v>-101.541</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>48649.102621</v>
+        <v>48649.102620999998</v>
       </c>
       <c r="V14" s="1">
-        <v>13.513640</v>
+        <v>13.513640000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>955.844000</v>
+        <v>955.84400000000005</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.717800</v>
+        <v>-88.717799999999997</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>48659.629710</v>
+        <v>48659.629710000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>13.516564</v>
+        <v>13.516564000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>963.850000</v>
+        <v>963.85</v>
       </c>
       <c r="AC14" s="1">
-        <v>-79.938800</v>
+        <v>-79.938800000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>48670.504495</v>
+        <v>48670.504495000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>13.519585</v>
+        <v>13.519584999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>968.995000</v>
+        <v>968.995</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.867000</v>
+        <v>-79.867000000000004</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>48681.007810</v>
+        <v>48681.007810000003</v>
       </c>
       <c r="AK14" s="1">
-        <v>13.522502</v>
+        <v>13.522501999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>977.221000</v>
+        <v>977.221</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.889000</v>
+        <v>-87.888999999999996</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>48691.742692</v>
       </c>
       <c r="AP14" s="1">
-        <v>13.525484</v>
+        <v>13.525484000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>986.533000</v>
+        <v>986.53300000000002</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.049000</v>
+        <v>-103.04900000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>48702.766277</v>
+        <v>48702.766277000002</v>
       </c>
       <c r="AU14" s="1">
         <v>13.528546</v>
       </c>
       <c r="AV14" s="1">
-        <v>998.045000</v>
+        <v>998.04499999999996</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.842000</v>
+        <v>-124.842</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>48713.890857</v>
+        <v>48713.890856999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>13.531636</v>
+        <v>13.531636000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1007.810000</v>
+        <v>1007.81</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.708000</v>
+        <v>-143.708</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>48724.842711</v>
+        <v>48724.842710999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>13.534679</v>
+        <v>13.534679000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1053.430000</v>
+        <v>1053.43</v>
       </c>
       <c r="BG14" s="1">
-        <v>-228.949000</v>
+        <v>-228.94900000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>48736.215513</v>
+        <v>48736.215513000003</v>
       </c>
       <c r="BJ14" s="1">
-        <v>13.537838</v>
+        <v>13.537838000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1133.140000</v>
+        <v>1133.1400000000001</v>
       </c>
       <c r="BL14" s="1">
-        <v>-365.740000</v>
+        <v>-365.74</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>48746.875529</v>
+        <v>48746.875528999997</v>
       </c>
       <c r="BO14" s="1">
         <v>13.540799</v>
       </c>
       <c r="BP14" s="1">
-        <v>1264.770000</v>
+        <v>1264.77</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-577.459000</v>
+        <v>-577.45899999999995</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>48757.398622</v>
+        <v>48757.398622000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>13.543722</v>
+        <v>13.543722000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1412.830000</v>
+        <v>1412.83</v>
       </c>
       <c r="BV14" s="1">
-        <v>-803.740000</v>
+        <v>-803.74</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>48768.389966</v>
+        <v>48768.389966000002</v>
       </c>
       <c r="BY14" s="1">
         <v>13.546775</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1575.150000</v>
+        <v>1575.15</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1040.740000</v>
+        <v>-1040.74</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>48780.644622</v>
@@ -3805,180 +4221,180 @@
         <v>13.550179</v>
       </c>
       <c r="CE14" s="1">
-        <v>1985.680000</v>
+        <v>1985.68</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1595.790000</v>
+        <v>-1595.79</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>48608.121666</v>
+        <v>48608.121665999999</v>
       </c>
       <c r="B15" s="1">
-        <v>13.502256</v>
+        <v>13.502255999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>900.789000</v>
+        <v>900.78899999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-181.798000</v>
+        <v>-181.798</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>48618.255428</v>
+        <v>48618.255427999997</v>
       </c>
       <c r="G15" s="1">
-        <v>13.505071</v>
+        <v>13.505070999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>917.297000</v>
+        <v>917.29700000000003</v>
       </c>
       <c r="I15" s="1">
-        <v>-156.651000</v>
+        <v>-156.65100000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>48628.429399</v>
+        <v>48628.429399000001</v>
       </c>
       <c r="L15" s="1">
         <v>13.507897</v>
       </c>
       <c r="M15" s="1">
-        <v>941.177000</v>
+        <v>941.17700000000002</v>
       </c>
       <c r="N15" s="1">
-        <v>-115.393000</v>
+        <v>-115.393</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>48638.977291</v>
+        <v>48638.977291000003</v>
       </c>
       <c r="Q15" s="1">
-        <v>13.510827</v>
+        <v>13.510827000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>948.563000</v>
+        <v>948.56299999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-101.534000</v>
+        <v>-101.53400000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>48649.445853</v>
+        <v>48649.445852999997</v>
       </c>
       <c r="V15" s="1">
         <v>13.513735</v>
       </c>
       <c r="W15" s="1">
-        <v>955.830000</v>
+        <v>955.83</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.813000</v>
+        <v>-88.813000000000002</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>48660.325102</v>
+        <v>48660.325102000003</v>
       </c>
       <c r="AA15" s="1">
         <v>13.516757</v>
       </c>
       <c r="AB15" s="1">
-        <v>963.813000</v>
+        <v>963.81299999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.022400</v>
+        <v>-80.022400000000005</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>48670.846735</v>
+        <v>48670.846734999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>13.519680</v>
+        <v>13.519679999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>968.955000</v>
+        <v>968.95500000000004</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.802400</v>
+        <v>-79.802400000000006</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>48681.356005</v>
+        <v>48681.356005000001</v>
       </c>
       <c r="AK15" s="1">
         <v>13.522599</v>
       </c>
       <c r="AL15" s="1">
-        <v>977.194000</v>
+        <v>977.19399999999996</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.858600</v>
+        <v>-87.858599999999996</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>48692.109554</v>
+        <v>48692.109554000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>13.525586</v>
+        <v>13.525586000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>986.538000</v>
+        <v>986.53800000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.039000</v>
+        <v>-103.039</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>48703.442332</v>
+        <v>48703.442331999999</v>
       </c>
       <c r="AU15" s="1">
         <v>13.528734</v>
       </c>
       <c r="AV15" s="1">
-        <v>998.057000</v>
+        <v>998.05700000000002</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.843000</v>
+        <v>-124.843</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>48714.553701</v>
+        <v>48714.553700999997</v>
       </c>
       <c r="AZ15" s="1">
-        <v>13.531820</v>
+        <v>13.53182</v>
       </c>
       <c r="BA15" s="1">
-        <v>1007.800000</v>
+        <v>1007.8</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.694000</v>
+        <v>-143.69399999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>48725.289612</v>
@@ -3987,165 +4403,165 @@
         <v>13.534803</v>
       </c>
       <c r="BF15" s="1">
-        <v>1053.430000</v>
+        <v>1053.43</v>
       </c>
       <c r="BG15" s="1">
-        <v>-228.968000</v>
+        <v>-228.96799999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>48736.592472</v>
+        <v>48736.592471999997</v>
       </c>
       <c r="BJ15" s="1">
-        <v>13.537942</v>
+        <v>13.537941999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1133.170000</v>
+        <v>1133.17</v>
       </c>
       <c r="BL15" s="1">
-        <v>-365.664000</v>
+        <v>-365.66399999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>48747.285690</v>
+        <v>48747.285689999997</v>
       </c>
       <c r="BO15" s="1">
         <v>13.540913</v>
       </c>
       <c r="BP15" s="1">
-        <v>1264.750000</v>
+        <v>1264.75</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-577.443000</v>
+        <v>-577.44299999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>48757.826172</v>
+        <v>48757.826172000001</v>
       </c>
       <c r="BT15" s="1">
         <v>13.543841</v>
       </c>
       <c r="BU15" s="1">
-        <v>1412.880000</v>
+        <v>1412.88</v>
       </c>
       <c r="BV15" s="1">
-        <v>-803.795000</v>
+        <v>-803.79499999999996</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>48768.848766</v>
+        <v>48768.848766000003</v>
       </c>
       <c r="BY15" s="1">
-        <v>13.546902</v>
+        <v>13.546901999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1575.180000</v>
+        <v>1575.18</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1040.790000</v>
+        <v>-1040.79</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>48781.160461</v>
+        <v>48781.160460999999</v>
       </c>
       <c r="CD15" s="1">
         <v>13.550322</v>
       </c>
       <c r="CE15" s="1">
-        <v>1987.200000</v>
+        <v>1987.2</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1595.450000</v>
+        <v>-1595.45</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>48608.461425</v>
+        <v>48608.461425000001</v>
       </c>
       <c r="B16" s="1">
-        <v>13.502350</v>
+        <v>13.50235</v>
       </c>
       <c r="C16" s="1">
-        <v>900.808000</v>
+        <v>900.80799999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-181.552000</v>
+        <v>-181.55199999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>48618.591252</v>
+        <v>48618.591251999998</v>
       </c>
       <c r="G16" s="1">
-        <v>13.505164</v>
+        <v>13.505164000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>917.712000</v>
+        <v>917.71199999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-156.432000</v>
+        <v>-156.43199999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>48628.773096</v>
+        <v>48628.773095999997</v>
       </c>
       <c r="L16" s="1">
-        <v>13.507993</v>
+        <v>13.507993000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>941.281000</v>
+        <v>941.28099999999995</v>
       </c>
       <c r="N16" s="1">
-        <v>-115.462000</v>
+        <v>-115.462</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>48639.676188</v>
+        <v>48639.676187999998</v>
       </c>
       <c r="Q16" s="1">
         <v>13.511021</v>
       </c>
       <c r="R16" s="1">
-        <v>948.574000</v>
+        <v>948.57399999999996</v>
       </c>
       <c r="S16" s="1">
-        <v>-101.495000</v>
+        <v>-101.495</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>48650.131820</v>
+        <v>48650.131820000002</v>
       </c>
       <c r="V16" s="1">
         <v>13.513926</v>
       </c>
       <c r="W16" s="1">
-        <v>955.911000</v>
+        <v>955.91099999999994</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.779700</v>
+        <v>-88.779700000000005</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>48660.673294</v>
@@ -4154,225 +4570,225 @@
         <v>13.516854</v>
       </c>
       <c r="AB16" s="1">
-        <v>963.796000</v>
+        <v>963.79600000000005</v>
       </c>
       <c r="AC16" s="1">
-        <v>-79.977600</v>
+        <v>-79.977599999999995</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>48671.192448</v>
+        <v>48671.192448000002</v>
       </c>
       <c r="AF16" s="1">
         <v>13.519776</v>
       </c>
       <c r="AG16" s="1">
-        <v>968.954000</v>
+        <v>968.95399999999995</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.848300</v>
+        <v>-79.848299999999995</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>48681.706144</v>
+        <v>48681.706144000003</v>
       </c>
       <c r="AK16" s="1">
         <v>13.522696</v>
       </c>
       <c r="AL16" s="1">
-        <v>977.193000</v>
+        <v>977.19299999999998</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.894500</v>
+        <v>-87.894499999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>48692.771922</v>
       </c>
       <c r="AP16" s="1">
-        <v>13.525770</v>
+        <v>13.52577</v>
       </c>
       <c r="AQ16" s="1">
-        <v>986.527000</v>
+        <v>986.52700000000004</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.040000</v>
+        <v>-103.04</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>48703.895709</v>
+        <v>48703.895708999997</v>
       </c>
       <c r="AU16" s="1">
-        <v>13.528860</v>
+        <v>13.52886</v>
       </c>
       <c r="AV16" s="1">
-        <v>998.075000</v>
+        <v>998.07500000000005</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.818000</v>
+        <v>-124.818</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>48714.972821</v>
+        <v>48714.972821000003</v>
       </c>
       <c r="AZ16" s="1">
-        <v>13.531937</v>
+        <v>13.531936999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1007.800000</v>
+        <v>1007.8</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.698000</v>
+        <v>-143.69800000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>48725.647751</v>
+        <v>48725.647750999997</v>
       </c>
       <c r="BE16" s="1">
-        <v>13.534902</v>
+        <v>13.534902000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1053.420000</v>
+        <v>1053.42</v>
       </c>
       <c r="BG16" s="1">
-        <v>-228.955000</v>
+        <v>-228.95500000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>48736.968933</v>
+        <v>48736.968932999996</v>
       </c>
       <c r="BJ16" s="1">
-        <v>13.538047</v>
+        <v>13.538047000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1133.140000</v>
+        <v>1133.1400000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-365.764000</v>
+        <v>-365.76400000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>48747.680506</v>
+        <v>48747.680505999997</v>
       </c>
       <c r="BO16" s="1">
         <v>13.541022</v>
       </c>
       <c r="BP16" s="1">
-        <v>1264.740000</v>
+        <v>1264.74</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-577.389000</v>
+        <v>-577.38900000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>48758.237853</v>
+        <v>48758.237852999999</v>
       </c>
       <c r="BT16" s="1">
         <v>13.543955</v>
       </c>
       <c r="BU16" s="1">
-        <v>1412.970000</v>
+        <v>1412.97</v>
       </c>
       <c r="BV16" s="1">
-        <v>-803.845000</v>
+        <v>-803.84500000000003</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>48769.300125</v>
+        <v>48769.300125000002</v>
       </c>
       <c r="BY16" s="1">
-        <v>13.547028</v>
+        <v>13.547027999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1575.080000</v>
+        <v>1575.08</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1040.660000</v>
+        <v>-1040.6600000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>48781.678285</v>
+        <v>48781.678285000002</v>
       </c>
       <c r="CD16" s="1">
         <v>13.550466</v>
       </c>
       <c r="CE16" s="1">
-        <v>1986.770000</v>
+        <v>1986.77</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1595.790000</v>
+        <v>-1595.79</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>48608.806147</v>
+        <v>48608.806147000003</v>
       </c>
       <c r="B17" s="1">
-        <v>13.502446</v>
+        <v>13.502446000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>900.773000</v>
+        <v>900.77300000000002</v>
       </c>
       <c r="D17" s="1">
-        <v>-181.698000</v>
+        <v>-181.69800000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>48619.280700</v>
+        <v>48619.280700000003</v>
       </c>
       <c r="G17" s="1">
-        <v>13.505356</v>
+        <v>13.505356000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>917.837000</v>
+        <v>917.83699999999999</v>
       </c>
       <c r="I17" s="1">
-        <v>-156.591000</v>
+        <v>-156.59100000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>48629.461583</v>
+        <v>48629.461582999997</v>
       </c>
       <c r="L17" s="1">
         <v>13.508184</v>
       </c>
       <c r="M17" s="1">
-        <v>941.203000</v>
+        <v>941.20299999999997</v>
       </c>
       <c r="N17" s="1">
-        <v>-115.487000</v>
+        <v>-115.48699999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>48640.023385</v>
@@ -4381,13 +4797,13 @@
         <v>13.511118</v>
       </c>
       <c r="R17" s="1">
-        <v>948.569000</v>
+        <v>948.56899999999996</v>
       </c>
       <c r="S17" s="1">
-        <v>-101.463000</v>
+        <v>-101.46299999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>48650.482031</v>
@@ -4396,103 +4812,103 @@
         <v>13.514023</v>
       </c>
       <c r="W17" s="1">
-        <v>955.847000</v>
+        <v>955.84699999999998</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.715400</v>
+        <v>-88.715400000000002</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>48661.021980</v>
+        <v>48661.021979999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>13.516951</v>
+        <v>13.516951000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>963.861000</v>
+        <v>963.86099999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-79.950500</v>
+        <v>-79.950500000000005</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>48671.857118</v>
       </c>
       <c r="AF17" s="1">
-        <v>13.519960</v>
+        <v>13.519959999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>968.992000</v>
+        <v>968.99199999999996</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.876400</v>
+        <v>-79.876400000000004</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>48682.360896</v>
+        <v>48682.360895999998</v>
       </c>
       <c r="AK17" s="1">
         <v>13.522878</v>
       </c>
       <c r="AL17" s="1">
-        <v>977.220000</v>
+        <v>977.22</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.877400</v>
+        <v>-87.877399999999994</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>48693.186049</v>
+        <v>48693.186049000004</v>
       </c>
       <c r="AP17" s="1">
-        <v>13.525885</v>
+        <v>13.525885000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>986.537000</v>
+        <v>986.53700000000003</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.039000</v>
+        <v>-103.039</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>48704.257749</v>
+        <v>48704.257748999997</v>
       </c>
       <c r="AU17" s="1">
-        <v>13.528960</v>
+        <v>13.52896</v>
       </c>
       <c r="AV17" s="1">
-        <v>998.059000</v>
+        <v>998.05899999999997</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.818000</v>
+        <v>-124.818</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>48715.348292</v>
+        <v>48715.348292000002</v>
       </c>
       <c r="AZ17" s="1">
         <v>13.532041</v>
       </c>
       <c r="BA17" s="1">
-        <v>1007.800000</v>
+        <v>1007.8</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.697000</v>
+        <v>-143.697</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>48726.007846</v>
@@ -4501,240 +4917,240 @@
         <v>13.535002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1053.430000</v>
+        <v>1053.43</v>
       </c>
       <c r="BG17" s="1">
-        <v>-228.962000</v>
+        <v>-228.96199999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>48737.383064</v>
+        <v>48737.383064000001</v>
       </c>
       <c r="BJ17" s="1">
         <v>13.538162</v>
       </c>
       <c r="BK17" s="1">
-        <v>1133.070000</v>
+        <v>1133.07</v>
       </c>
       <c r="BL17" s="1">
-        <v>-365.703000</v>
+        <v>-365.70299999999997</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>48748.101648</v>
+        <v>48748.101648000003</v>
       </c>
       <c r="BO17" s="1">
-        <v>13.541139</v>
+        <v>13.541138999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1264.740000</v>
+        <v>1264.74</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-577.419000</v>
+        <v>-577.41899999999998</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>48758.654989</v>
+        <v>48758.654989000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>13.544071</v>
+        <v>13.544071000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1413.000000</v>
+        <v>1413</v>
       </c>
       <c r="BV17" s="1">
-        <v>-803.947000</v>
+        <v>-803.947</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>48769.715277</v>
+        <v>48769.715277000003</v>
       </c>
       <c r="BY17" s="1">
         <v>13.547143</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1575.050000</v>
+        <v>1575.05</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1040.770000</v>
+        <v>-1040.77</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>48782.229874</v>
+        <v>48782.229873999997</v>
       </c>
       <c r="CD17" s="1">
-        <v>13.550619</v>
+        <v>13.550618999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1985.680000</v>
+        <v>1985.68</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1595.640000</v>
+        <v>-1595.64</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>48609.487154</v>
+        <v>48609.487154000002</v>
       </c>
       <c r="B18" s="1">
         <v>13.502635</v>
       </c>
       <c r="C18" s="1">
-        <v>900.643000</v>
+        <v>900.64300000000003</v>
       </c>
       <c r="D18" s="1">
-        <v>-181.677000</v>
+        <v>-181.67699999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>48619.628888</v>
+        <v>48619.628887999999</v>
       </c>
       <c r="G18" s="1">
         <v>13.505452</v>
       </c>
       <c r="H18" s="1">
-        <v>917.369000</v>
+        <v>917.36900000000003</v>
       </c>
       <c r="I18" s="1">
-        <v>-156.604000</v>
+        <v>-156.60400000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>48629.812246</v>
+        <v>48629.812246000001</v>
       </c>
       <c r="L18" s="1">
         <v>13.508281</v>
       </c>
       <c r="M18" s="1">
-        <v>941.170000</v>
+        <v>941.17</v>
       </c>
       <c r="N18" s="1">
-        <v>-115.445000</v>
+        <v>-115.44499999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>48640.375511</v>
+        <v>48640.375510999998</v>
       </c>
       <c r="Q18" s="1">
         <v>13.511215</v>
       </c>
       <c r="R18" s="1">
-        <v>948.617000</v>
+        <v>948.61699999999996</v>
       </c>
       <c r="S18" s="1">
-        <v>-101.493000</v>
+        <v>-101.49299999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>48650.832704</v>
       </c>
       <c r="V18" s="1">
-        <v>13.514120</v>
+        <v>13.51412</v>
       </c>
       <c r="W18" s="1">
-        <v>955.961000</v>
+        <v>955.96100000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.758900</v>
+        <v>-88.758899999999997</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>48661.678996</v>
+        <v>48661.678996000002</v>
       </c>
       <c r="AA18" s="1">
-        <v>13.517133</v>
+        <v>13.517132999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>963.856000</v>
+        <v>963.85599999999999</v>
       </c>
       <c r="AC18" s="1">
-        <v>-79.972200</v>
+        <v>-79.972200000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>48672.231565</v>
+        <v>48672.231565000002</v>
       </c>
       <c r="AF18" s="1">
         <v>13.520064</v>
       </c>
       <c r="AG18" s="1">
-        <v>969.038000</v>
+        <v>969.03800000000001</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.647300</v>
+        <v>-79.647300000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>48682.750756</v>
+        <v>48682.750756000001</v>
       </c>
       <c r="AK18" s="1">
         <v>13.522986</v>
       </c>
       <c r="AL18" s="1">
-        <v>977.218000</v>
+        <v>977.21799999999996</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.881600</v>
+        <v>-87.881600000000006</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>48693.567970</v>
+        <v>48693.567969999996</v>
       </c>
       <c r="AP18" s="1">
-        <v>13.525991</v>
+        <v>13.525990999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>986.516000</v>
+        <v>986.51599999999996</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.055000</v>
+        <v>-103.05500000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>48704.622802</v>
+        <v>48704.622801999998</v>
       </c>
       <c r="AU18" s="1">
         <v>13.529062</v>
       </c>
       <c r="AV18" s="1">
-        <v>998.066000</v>
+        <v>998.06600000000003</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.821000</v>
+        <v>-124.821</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>48715.727733</v>
@@ -4743,150 +5159,150 @@
         <v>13.532147</v>
       </c>
       <c r="BA18" s="1">
-        <v>1007.790000</v>
+        <v>1007.79</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.702000</v>
+        <v>-143.702</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>48726.421510</v>
+        <v>48726.42151</v>
       </c>
       <c r="BE18" s="1">
         <v>13.535117</v>
       </c>
       <c r="BF18" s="1">
-        <v>1053.410000</v>
+        <v>1053.4100000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-228.960000</v>
+        <v>-228.96</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>48737.742695</v>
+        <v>48737.742695000001</v>
       </c>
       <c r="BJ18" s="1">
         <v>13.538262</v>
       </c>
       <c r="BK18" s="1">
-        <v>1133.180000</v>
+        <v>1133.18</v>
       </c>
       <c r="BL18" s="1">
-        <v>-365.728000</v>
+        <v>-365.72800000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>48748.500926</v>
+        <v>48748.500926000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>13.541250</v>
+        <v>13.54125</v>
       </c>
       <c r="BP18" s="1">
-        <v>1264.750000</v>
+        <v>1264.75</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-577.439000</v>
+        <v>-577.43899999999996</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>48759.070138</v>
+        <v>48759.070138000003</v>
       </c>
       <c r="BT18" s="1">
         <v>13.544186</v>
       </c>
       <c r="BU18" s="1">
-        <v>1413.010000</v>
+        <v>1413.01</v>
       </c>
       <c r="BV18" s="1">
-        <v>-803.915000</v>
+        <v>-803.91499999999996</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>48770.158737</v>
+        <v>48770.158736999998</v>
       </c>
       <c r="BY18" s="1">
         <v>13.547266</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1574.980000</v>
+        <v>1574.98</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1040.800000</v>
+        <v>-1040.8</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>48782.759067</v>
+        <v>48782.759066999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>13.550766</v>
+        <v>13.550765999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1987.120000</v>
+        <v>1987.12</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1595.370000</v>
+        <v>-1595.37</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>48609.831872</v>
+        <v>48609.831872000002</v>
       </c>
       <c r="B19" s="1">
-        <v>13.502731</v>
+        <v>13.502731000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>900.743000</v>
+        <v>900.74300000000005</v>
       </c>
       <c r="D19" s="1">
-        <v>-181.458000</v>
+        <v>-181.458</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>48619.971588</v>
       </c>
       <c r="G19" s="1">
-        <v>13.505548</v>
+        <v>13.505547999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>917.790000</v>
+        <v>917.79</v>
       </c>
       <c r="I19" s="1">
-        <v>-156.287000</v>
+        <v>-156.28700000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>48630.160902</v>
+        <v>48630.160902000003</v>
       </c>
       <c r="L19" s="1">
         <v>13.508378</v>
       </c>
       <c r="M19" s="1">
-        <v>941.082000</v>
+        <v>941.08199999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-115.431000</v>
+        <v>-115.431</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>48641.048615</v>
@@ -4895,225 +5311,225 @@
         <v>13.511402</v>
       </c>
       <c r="R19" s="1">
-        <v>948.597000</v>
+        <v>948.59699999999998</v>
       </c>
       <c r="S19" s="1">
-        <v>-101.514000</v>
+        <v>-101.514</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>48651.547898</v>
+        <v>48651.547897999997</v>
       </c>
       <c r="V19" s="1">
         <v>13.514319</v>
       </c>
       <c r="W19" s="1">
-        <v>955.938000</v>
+        <v>955.93799999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.705800</v>
+        <v>-88.705799999999996</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>48662.066060</v>
+        <v>48662.066059999997</v>
       </c>
       <c r="AA19" s="1">
         <v>13.517241</v>
       </c>
       <c r="AB19" s="1">
-        <v>963.736000</v>
+        <v>963.73599999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-79.975300</v>
+        <v>-79.975300000000004</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>48672.577773</v>
+        <v>48672.577772999997</v>
       </c>
       <c r="AF19" s="1">
-        <v>13.520160</v>
+        <v>13.520160000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>969.066000</v>
+        <v>969.06600000000003</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.807900</v>
+        <v>-79.807900000000004</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>48683.099407</v>
+        <v>48683.099407000002</v>
       </c>
       <c r="AK19" s="1">
         <v>13.523083</v>
       </c>
       <c r="AL19" s="1">
-        <v>977.194000</v>
+        <v>977.19399999999996</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.871200</v>
+        <v>-87.871200000000002</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>48693.929057</v>
+        <v>48693.929057000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>13.526091</v>
+        <v>13.526090999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>986.544000</v>
+        <v>986.54399999999998</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.062000</v>
+        <v>-103.062</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>48705.054819</v>
+        <v>48705.054818999997</v>
       </c>
       <c r="AU19" s="1">
         <v>13.529182</v>
       </c>
       <c r="AV19" s="1">
-        <v>998.052000</v>
+        <v>998.05200000000002</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.829000</v>
+        <v>-124.82899999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>48716.153795</v>
+        <v>48716.153794999998</v>
       </c>
       <c r="AZ19" s="1">
-        <v>13.532265</v>
+        <v>13.532265000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1007.810000</v>
+        <v>1007.81</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.690000</v>
+        <v>-143.69</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>48726.731512</v>
+        <v>48726.731511999998</v>
       </c>
       <c r="BE19" s="1">
-        <v>13.535203</v>
+        <v>13.535202999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1053.400000</v>
+        <v>1053.4000000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-228.968000</v>
+        <v>-228.96799999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>48738.118630</v>
+        <v>48738.118629999997</v>
       </c>
       <c r="BJ19" s="1">
         <v>13.538366</v>
       </c>
       <c r="BK19" s="1">
-        <v>1133.130000</v>
+        <v>1133.1300000000001</v>
       </c>
       <c r="BL19" s="1">
-        <v>-365.769000</v>
+        <v>-365.76900000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>48748.921145</v>
       </c>
       <c r="BO19" s="1">
-        <v>13.541367</v>
+        <v>13.541366999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1264.740000</v>
+        <v>1264.74</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-577.444000</v>
+        <v>-577.44399999999996</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>48759.480362</v>
+        <v>48759.480362000002</v>
       </c>
       <c r="BT19" s="1">
-        <v>13.544300</v>
+        <v>13.5443</v>
       </c>
       <c r="BU19" s="1">
-        <v>1412.950000</v>
+        <v>1412.95</v>
       </c>
       <c r="BV19" s="1">
-        <v>-804.026000</v>
+        <v>-804.02599999999995</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>48770.591707</v>
       </c>
       <c r="BY19" s="1">
-        <v>13.547387</v>
+        <v>13.547387000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1575.010000</v>
+        <v>1575.01</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1040.790000</v>
+        <v>-1040.79</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>48783.280858</v>
+        <v>48783.280857999998</v>
       </c>
       <c r="CD19" s="1">
-        <v>13.550911</v>
+        <v>13.550910999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1985.640000</v>
+        <v>1985.64</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1594.190000</v>
+        <v>-1594.19</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>48610.171173</v>
+        <v>48610.171173000002</v>
       </c>
       <c r="B20" s="1">
         <v>13.502825</v>
       </c>
       <c r="C20" s="1">
-        <v>900.732000</v>
+        <v>900.73199999999997</v>
       </c>
       <c r="D20" s="1">
-        <v>-181.776000</v>
+        <v>-181.77600000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>48620.621841</v>
@@ -5122,330 +5538,330 @@
         <v>13.505728</v>
       </c>
       <c r="H20" s="1">
-        <v>917.198000</v>
+        <v>917.19799999999998</v>
       </c>
       <c r="I20" s="1">
-        <v>-156.730000</v>
+        <v>-156.72999999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>48630.815656</v>
+        <v>48630.815655999999</v>
       </c>
       <c r="L20" s="1">
-        <v>13.508560</v>
+        <v>13.508559999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>941.179000</v>
+        <v>941.17899999999997</v>
       </c>
       <c r="N20" s="1">
-        <v>-115.518000</v>
+        <v>-115.518</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>48641.418598</v>
+        <v>48641.418597999997</v>
       </c>
       <c r="Q20" s="1">
         <v>13.511505</v>
       </c>
       <c r="R20" s="1">
-        <v>948.556000</v>
+        <v>948.55600000000004</v>
       </c>
       <c r="S20" s="1">
-        <v>-101.514000</v>
+        <v>-101.514</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>48651.866360</v>
+        <v>48651.86636</v>
       </c>
       <c r="V20" s="1">
         <v>13.514407</v>
       </c>
       <c r="W20" s="1">
-        <v>955.855000</v>
+        <v>955.85500000000002</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.871500</v>
+        <v>-88.871499999999997</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>48662.415275</v>
+        <v>48662.415274999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>13.517338</v>
+        <v>13.517338000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>963.845000</v>
+        <v>963.84500000000003</v>
       </c>
       <c r="AC20" s="1">
-        <v>-79.946200</v>
+        <v>-79.946200000000005</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>48672.918028</v>
       </c>
       <c r="AF20" s="1">
-        <v>13.520255</v>
+        <v>13.520255000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>969.082000</v>
+        <v>969.08199999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.882400</v>
+        <v>-79.882400000000004</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>48683.448625</v>
+        <v>48683.448624999997</v>
       </c>
       <c r="AK20" s="1">
-        <v>13.523180</v>
+        <v>13.52318</v>
       </c>
       <c r="AL20" s="1">
-        <v>977.214000</v>
+        <v>977.21400000000006</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.895300</v>
+        <v>-87.895300000000006</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>48694.355653</v>
+        <v>48694.355652999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>13.526210</v>
+        <v>13.526210000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>986.521000</v>
+        <v>986.52099999999996</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.081000</v>
+        <v>-103.081</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>48705.351500</v>
+        <v>48705.351499999997</v>
       </c>
       <c r="AU20" s="1">
         <v>13.529264</v>
       </c>
       <c r="AV20" s="1">
-        <v>998.080000</v>
+        <v>998.08</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.819000</v>
+        <v>-124.819</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>48716.445443</v>
+        <v>48716.445442999997</v>
       </c>
       <c r="AZ20" s="1">
         <v>13.532346</v>
       </c>
       <c r="BA20" s="1">
-        <v>1007.820000</v>
+        <v>1007.82</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.701000</v>
+        <v>-143.70099999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>48727.094054</v>
+        <v>48727.094054000001</v>
       </c>
       <c r="BE20" s="1">
         <v>13.535304</v>
       </c>
       <c r="BF20" s="1">
-        <v>1053.410000</v>
+        <v>1053.4100000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-228.948000</v>
+        <v>-228.94800000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>48738.493606</v>
+        <v>48738.493606000004</v>
       </c>
       <c r="BJ20" s="1">
-        <v>13.538470</v>
+        <v>13.53847</v>
       </c>
       <c r="BK20" s="1">
-        <v>1133.160000</v>
+        <v>1133.1600000000001</v>
       </c>
       <c r="BL20" s="1">
-        <v>-365.673000</v>
+        <v>-365.673</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>48749.315816</v>
+        <v>48749.315816000002</v>
       </c>
       <c r="BO20" s="1">
         <v>13.541477</v>
       </c>
       <c r="BP20" s="1">
-        <v>1264.750000</v>
+        <v>1264.75</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-577.441000</v>
+        <v>-577.44100000000003</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>48759.902922</v>
+        <v>48759.902922000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>13.544417</v>
+        <v>13.544416999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1413.000000</v>
+        <v>1413</v>
       </c>
       <c r="BV20" s="1">
-        <v>-804.121000</v>
+        <v>-804.12099999999998</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>48771.009371</v>
       </c>
       <c r="BY20" s="1">
-        <v>13.547503</v>
+        <v>13.547503000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1575.030000</v>
+        <v>1575.03</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1040.820000</v>
+        <v>-1040.82</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>48783.820010</v>
+        <v>48783.820010000003</v>
       </c>
       <c r="CD20" s="1">
-        <v>13.551061</v>
+        <v>13.551061000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>1985.760000</v>
+        <v>1985.76</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1595.640000</v>
+        <v>-1595.64</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>48610.819903</v>
+        <v>48610.819903000003</v>
       </c>
       <c r="B21" s="1">
-        <v>13.503006</v>
+        <v>13.503005999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>900.857000</v>
+        <v>900.85699999999997</v>
       </c>
       <c r="D21" s="1">
-        <v>-181.625000</v>
+        <v>-181.625</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>48621.005746</v>
+        <v>48621.005746000003</v>
       </c>
       <c r="G21" s="1">
-        <v>13.505835</v>
+        <v>13.505834999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>917.408000</v>
+        <v>917.40800000000002</v>
       </c>
       <c r="I21" s="1">
-        <v>-156.703000</v>
+        <v>-156.703</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>48631.196084</v>
+        <v>48631.196084000003</v>
       </c>
       <c r="L21" s="1">
         <v>13.508666</v>
       </c>
       <c r="M21" s="1">
-        <v>941.139000</v>
+        <v>941.13900000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-115.349000</v>
+        <v>-115.349</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>48641.768775</v>
+        <v>48641.768774999997</v>
       </c>
       <c r="Q21" s="1">
         <v>13.511602</v>
       </c>
       <c r="R21" s="1">
-        <v>948.536000</v>
+        <v>948.53599999999994</v>
       </c>
       <c r="S21" s="1">
-        <v>-101.495000</v>
+        <v>-101.495</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>48652.209096</v>
+        <v>48652.209095999999</v>
       </c>
       <c r="V21" s="1">
-        <v>13.514503</v>
+        <v>13.514502999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>955.819000</v>
+        <v>955.81899999999996</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.780000</v>
+        <v>-88.78</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>48662.765950</v>
+        <v>48662.765950000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>13.517435</v>
+        <v>13.517435000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>963.800000</v>
+        <v>963.8</v>
       </c>
       <c r="AC21" s="1">
-        <v>-79.966300</v>
+        <v>-79.966300000000004</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>48673.346608</v>
@@ -5454,73 +5870,73 @@
         <v>13.520374</v>
       </c>
       <c r="AG21" s="1">
-        <v>968.978000</v>
+        <v>968.97799999999995</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.879500</v>
+        <v>-79.879499999999993</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>48683.881102</v>
+        <v>48683.881101999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>13.523300</v>
+        <v>13.523300000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>977.205000</v>
+        <v>977.20500000000004</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.895000</v>
+        <v>-87.894999999999996</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>48694.649776</v>
+        <v>48694.649775999998</v>
       </c>
       <c r="AP21" s="1">
         <v>13.526292</v>
       </c>
       <c r="AQ21" s="1">
-        <v>986.531000</v>
+        <v>986.53099999999995</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.080000</v>
+        <v>-103.08</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>48705.717969</v>
+        <v>48705.717968999998</v>
       </c>
       <c r="AU21" s="1">
         <v>13.529366</v>
       </c>
       <c r="AV21" s="1">
-        <v>998.063000</v>
+        <v>998.06299999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.830000</v>
+        <v>-124.83</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>48716.803060</v>
+        <v>48716.803059999998</v>
       </c>
       <c r="AZ21" s="1">
-        <v>13.532445</v>
+        <v>13.532444999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1007.800000</v>
+        <v>1007.8</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.697000</v>
+        <v>-143.697</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>48727.455639</v>
@@ -5529,73 +5945,73 @@
         <v>13.535404</v>
       </c>
       <c r="BF21" s="1">
-        <v>1053.410000</v>
+        <v>1053.4100000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-228.974000</v>
+        <v>-228.97399999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>48739.246534</v>
+        <v>48739.246533999998</v>
       </c>
       <c r="BJ21" s="1">
-        <v>13.538680</v>
+        <v>13.538679999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1133.150000</v>
+        <v>1133.1500000000001</v>
       </c>
       <c r="BL21" s="1">
-        <v>-365.763000</v>
+        <v>-365.76299999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>48749.735936</v>
+        <v>48749.735935999997</v>
       </c>
       <c r="BO21" s="1">
-        <v>13.541593</v>
+        <v>13.541593000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1264.770000</v>
+        <v>1264.77</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-577.431000</v>
+        <v>-577.43100000000004</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>48760.333982</v>
+        <v>48760.333981999996</v>
       </c>
       <c r="BT21" s="1">
         <v>13.544537</v>
       </c>
       <c r="BU21" s="1">
-        <v>1413.030000</v>
+        <v>1413.03</v>
       </c>
       <c r="BV21" s="1">
-        <v>-804.167000</v>
+        <v>-804.16700000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>48771.437882</v>
+        <v>48771.437881999998</v>
       </c>
       <c r="BY21" s="1">
         <v>13.547622</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1575.100000</v>
+        <v>1575.1</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1040.640000</v>
+        <v>-1040.6400000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>48784.359161</v>
@@ -5604,45 +6020,45 @@
         <v>13.551211</v>
       </c>
       <c r="CE21" s="1">
-        <v>1987.330000</v>
+        <v>1987.33</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1594.500000</v>
+        <v>-1594.5</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>48611.195908</v>
+        <v>48611.195908000002</v>
       </c>
       <c r="B22" s="1">
-        <v>13.503110</v>
+        <v>13.50311</v>
       </c>
       <c r="C22" s="1">
-        <v>900.728000</v>
+        <v>900.72799999999995</v>
       </c>
       <c r="D22" s="1">
-        <v>-181.755000</v>
+        <v>-181.755</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>48621.349121</v>
+        <v>48621.349120999999</v>
       </c>
       <c r="G22" s="1">
-        <v>13.505930</v>
+        <v>13.505929999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>917.243000</v>
+        <v>917.24300000000005</v>
       </c>
       <c r="I22" s="1">
-        <v>-156.545000</v>
+        <v>-156.54499999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>48631.540277</v>
@@ -5651,28 +6067,28 @@
         <v>13.508761</v>
       </c>
       <c r="M22" s="1">
-        <v>941.372000</v>
+        <v>941.37199999999996</v>
       </c>
       <c r="N22" s="1">
-        <v>-115.323000</v>
+        <v>-115.32299999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>48642.107047</v>
+        <v>48642.107046999998</v>
       </c>
       <c r="Q22" s="1">
-        <v>13.511696</v>
+        <v>13.511696000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>948.553000</v>
+        <v>948.553</v>
       </c>
       <c r="S22" s="1">
-        <v>-101.478000</v>
+        <v>-101.47799999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>48652.627688</v>
@@ -5681,467 +6097,467 @@
         <v>13.514619</v>
       </c>
       <c r="W22" s="1">
-        <v>955.842000</v>
+        <v>955.84199999999998</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.721600</v>
+        <v>-88.721599999999995</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>48663.193963</v>
+        <v>48663.193962999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>13.517554</v>
+        <v>13.517554000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>963.719000</v>
+        <v>963.71900000000005</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.155700</v>
+        <v>-80.155699999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>48673.616893</v>
+        <v>48673.616892999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>13.520449</v>
+        <v>13.520448999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>969.026000</v>
+        <v>969.02599999999995</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.819300</v>
+        <v>-79.819299999999998</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>48684.144975</v>
+        <v>48684.144975000003</v>
       </c>
       <c r="AK22" s="1">
         <v>13.523374</v>
       </c>
       <c r="AL22" s="1">
-        <v>977.200000</v>
+        <v>977.2</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.879100</v>
+        <v>-87.879099999999994</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>48695.009246</v>
+        <v>48695.009246000001</v>
       </c>
       <c r="AP22" s="1">
         <v>13.526391</v>
       </c>
       <c r="AQ22" s="1">
-        <v>986.527000</v>
+        <v>986.52700000000004</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.079000</v>
+        <v>-103.07899999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>48706.082067</v>
+        <v>48706.082067000003</v>
       </c>
       <c r="AU22" s="1">
         <v>13.529467</v>
       </c>
       <c r="AV22" s="1">
-        <v>998.082000</v>
+        <v>998.08199999999999</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.832000</v>
+        <v>-124.83199999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>48717.163154</v>
+        <v>48717.163154000002</v>
       </c>
       <c r="AZ22" s="1">
-        <v>13.532545</v>
+        <v>13.532545000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1007.790000</v>
+        <v>1007.79</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.688000</v>
+        <v>-143.68799999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>48728.176851</v>
+        <v>48728.176850999997</v>
       </c>
       <c r="BE22" s="1">
         <v>13.535605</v>
       </c>
       <c r="BF22" s="1">
-        <v>1053.400000</v>
+        <v>1053.4000000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-228.960000</v>
+        <v>-228.96</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>48739.622005</v>
+        <v>48739.622004999997</v>
       </c>
       <c r="BJ22" s="1">
         <v>13.538784</v>
       </c>
       <c r="BK22" s="1">
-        <v>1133.170000</v>
+        <v>1133.17</v>
       </c>
       <c r="BL22" s="1">
-        <v>-365.690000</v>
+        <v>-365.69</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>48750.133718</v>
+        <v>48750.133717999997</v>
       </c>
       <c r="BO22" s="1">
-        <v>13.541704</v>
+        <v>13.541703999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1264.760000</v>
+        <v>1264.76</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-577.398000</v>
+        <v>-577.39800000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>48760.761533</v>
+        <v>48760.761532999997</v>
       </c>
       <c r="BT22" s="1">
         <v>13.544656</v>
       </c>
       <c r="BU22" s="1">
-        <v>1413.000000</v>
+        <v>1413</v>
       </c>
       <c r="BV22" s="1">
-        <v>-804.253000</v>
+        <v>-804.25300000000004</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>48772.161545</v>
+        <v>48772.161545000003</v>
       </c>
       <c r="BY22" s="1">
-        <v>13.547823</v>
+        <v>13.547822999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1574.980000</v>
+        <v>1574.98</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1040.690000</v>
+        <v>-1040.69</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>48785.216249</v>
+        <v>48785.216248999997</v>
       </c>
       <c r="CD22" s="1">
         <v>13.551449</v>
       </c>
       <c r="CE22" s="1">
-        <v>1986.280000</v>
+        <v>1986.28</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1596.000000</v>
+        <v>-1596</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>48611.539133</v>
+        <v>48611.539132999998</v>
       </c>
       <c r="B23" s="1">
-        <v>13.503205</v>
+        <v>13.503204999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>900.669000</v>
+        <v>900.66899999999998</v>
       </c>
       <c r="D23" s="1">
-        <v>-181.607000</v>
+        <v>-181.607</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>48621.693236</v>
+        <v>48621.693235999999</v>
       </c>
       <c r="G23" s="1">
         <v>13.506026</v>
       </c>
       <c r="H23" s="1">
-        <v>917.168000</v>
+        <v>917.16800000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-156.702000</v>
+        <v>-156.702</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>48631.887010</v>
+        <v>48631.887009999999</v>
       </c>
       <c r="L23" s="1">
         <v>13.508858</v>
       </c>
       <c r="M23" s="1">
-        <v>941.125000</v>
+        <v>941.125</v>
       </c>
       <c r="N23" s="1">
-        <v>-115.475000</v>
+        <v>-115.47499999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>48642.542532</v>
+        <v>48642.542531999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>13.511817</v>
+        <v>13.511817000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>948.599000</v>
+        <v>948.59900000000005</v>
       </c>
       <c r="S23" s="1">
-        <v>-101.497000</v>
+        <v>-101.497</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>48652.906471</v>
+        <v>48652.906471000002</v>
       </c>
       <c r="V23" s="1">
-        <v>13.514696</v>
+        <v>13.514696000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>955.869000</v>
+        <v>955.86900000000003</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.698200</v>
+        <v>-88.6982</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>48663.476682</v>
       </c>
       <c r="AA23" s="1">
-        <v>13.517632</v>
+        <v>13.517632000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>963.747000</v>
+        <v>963.74699999999996</v>
       </c>
       <c r="AC23" s="1">
-        <v>-79.945200</v>
+        <v>-79.9452</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>48673.960124</v>
+        <v>48673.960123999997</v>
       </c>
       <c r="AF23" s="1">
-        <v>13.520544</v>
+        <v>13.520543999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>969.074000</v>
+        <v>969.07399999999996</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.675200</v>
+        <v>-79.675200000000004</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>48684.513999</v>
+        <v>48684.513999000003</v>
       </c>
       <c r="AK23" s="1">
         <v>13.523476</v>
       </c>
       <c r="AL23" s="1">
-        <v>977.181000</v>
+        <v>977.18100000000004</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.886900</v>
+        <v>-87.886899999999997</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>48695.367952</v>
+        <v>48695.367952000001</v>
       </c>
       <c r="AP23" s="1">
         <v>13.526491</v>
       </c>
       <c r="AQ23" s="1">
-        <v>986.531000</v>
+        <v>986.53099999999995</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.094000</v>
+        <v>-103.09399999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>48706.811152</v>
+        <v>48706.811152000002</v>
       </c>
       <c r="AU23" s="1">
-        <v>13.529670</v>
+        <v>13.529669999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>998.082000</v>
+        <v>998.08199999999999</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.821000</v>
+        <v>-124.821</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>48717.879872</v>
+        <v>48717.879871999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>13.532744</v>
+        <v>13.532743999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1007.800000</v>
+        <v>1007.8</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.686000</v>
+        <v>-143.68600000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>48728.538898</v>
+        <v>48728.538897999999</v>
       </c>
       <c r="BE23" s="1">
         <v>13.535705</v>
       </c>
       <c r="BF23" s="1">
-        <v>1053.430000</v>
+        <v>1053.43</v>
       </c>
       <c r="BG23" s="1">
-        <v>-228.960000</v>
+        <v>-228.96</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>48739.993540</v>
+        <v>48739.993540000003</v>
       </c>
       <c r="BJ23" s="1">
-        <v>13.538887</v>
+        <v>13.538887000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1133.100000</v>
+        <v>1133.0999999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-365.749000</v>
+        <v>-365.74900000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>48750.555353</v>
+        <v>48750.555353000003</v>
       </c>
       <c r="BO23" s="1">
-        <v>13.541821</v>
+        <v>13.541821000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1264.780000</v>
+        <v>1264.78</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-577.442000</v>
+        <v>-577.44200000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>48761.483175</v>
+        <v>48761.483175000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>13.544856</v>
+        <v>13.544855999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1412.960000</v>
+        <v>1412.96</v>
       </c>
       <c r="BV23" s="1">
-        <v>-804.267000</v>
+        <v>-804.26700000000005</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>48772.274633</v>
+        <v>48772.274633000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>13.547854</v>
+        <v>13.547853999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1574.870000</v>
+        <v>1574.87</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1040.840000</v>
+        <v>-1040.8399999999999</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>48785.437961</v>
+        <v>48785.437961000003</v>
       </c>
       <c r="CD23" s="1">
         <v>13.551511</v>
       </c>
       <c r="CE23" s="1">
-        <v>1986.270000</v>
+        <v>1986.27</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1596.180000</v>
+        <v>-1596.18</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>48611.882335</v>
+        <v>48611.882335000002</v>
       </c>
       <c r="B24" s="1">
         <v>13.503301</v>
       </c>
       <c r="C24" s="1">
-        <v>900.825000</v>
+        <v>900.82500000000005</v>
       </c>
       <c r="D24" s="1">
-        <v>-181.682000</v>
+        <v>-181.68199999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>48622.106367</v>
@@ -6150,13 +6566,13 @@
         <v>13.506141</v>
       </c>
       <c r="H24" s="1">
-        <v>917.400000</v>
+        <v>917.4</v>
       </c>
       <c r="I24" s="1">
-        <v>-156.813000</v>
+        <v>-156.81299999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>48632.304612</v>
@@ -6165,739 +6581,740 @@
         <v>13.508974</v>
       </c>
       <c r="M24" s="1">
-        <v>941.191000</v>
+        <v>941.19100000000003</v>
       </c>
       <c r="N24" s="1">
-        <v>-115.391000</v>
+        <v>-115.39100000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>48642.816820</v>
+        <v>48642.81682</v>
       </c>
       <c r="Q24" s="1">
         <v>13.511894</v>
       </c>
       <c r="R24" s="1">
-        <v>948.595000</v>
+        <v>948.59500000000003</v>
       </c>
       <c r="S24" s="1">
-        <v>-101.444000</v>
+        <v>-101.444</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>48653.253142</v>
+        <v>48653.253142000001</v>
       </c>
       <c r="V24" s="1">
-        <v>13.514793</v>
+        <v>13.514792999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>955.856000</v>
+        <v>955.85599999999999</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.715900</v>
+        <v>-88.715900000000005</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>48663.823913</v>
       </c>
       <c r="AA24" s="1">
-        <v>13.517729</v>
+        <v>13.517728999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>963.750000</v>
+        <v>963.75</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.052200</v>
+        <v>-80.052199999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>48674.303850</v>
+        <v>48674.303849999997</v>
       </c>
       <c r="AF24" s="1">
-        <v>13.520640</v>
+        <v>13.52064</v>
       </c>
       <c r="AG24" s="1">
-        <v>969.019000</v>
+        <v>969.01900000000001</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.782200</v>
+        <v>-79.782200000000003</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>48685.118620</v>
+        <v>48685.118620000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>13.523644</v>
+        <v>13.523644000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>977.205000</v>
+        <v>977.20500000000004</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.885300</v>
+        <v>-87.885300000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>48696.091156</v>
+        <v>48696.091156000002</v>
       </c>
       <c r="AP24" s="1">
-        <v>13.526692</v>
+        <v>13.526692000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>986.510000</v>
+        <v>986.51</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.065000</v>
+        <v>-103.065</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>48707.200047</v>
+        <v>48707.200046999998</v>
       </c>
       <c r="AU24" s="1">
         <v>13.529778</v>
       </c>
       <c r="AV24" s="1">
-        <v>998.060000</v>
+        <v>998.06</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.826000</v>
+        <v>-124.82599999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>48718.237528</v>
+        <v>48718.237527999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>13.532844</v>
+        <v>13.532844000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1007.800000</v>
+        <v>1007.8</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.692000</v>
+        <v>-143.69200000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>48728.898498</v>
+        <v>48728.898498000002</v>
       </c>
       <c r="BE24" s="1">
         <v>13.535805</v>
       </c>
       <c r="BF24" s="1">
-        <v>1053.420000</v>
+        <v>1053.42</v>
       </c>
       <c r="BG24" s="1">
-        <v>-228.981000</v>
+        <v>-228.98099999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>48740.684435</v>
+        <v>48740.684435000003</v>
       </c>
       <c r="BJ24" s="1">
-        <v>13.539079</v>
+        <v>13.539078999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1133.140000</v>
+        <v>1133.1400000000001</v>
       </c>
       <c r="BL24" s="1">
-        <v>-365.745000</v>
+        <v>-365.745</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>48751.273029</v>
+        <v>48751.273029000004</v>
       </c>
       <c r="BO24" s="1">
-        <v>13.542020</v>
+        <v>13.542020000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1264.730000</v>
+        <v>1264.73</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-577.384000</v>
+        <v>-577.38400000000001</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>48761.606184</v>
+        <v>48761.606183999997</v>
       </c>
       <c r="BT24" s="1">
         <v>13.544891</v>
       </c>
       <c r="BU24" s="1">
-        <v>1412.900000</v>
+        <v>1412.9</v>
       </c>
       <c r="BV24" s="1">
-        <v>-804.316000</v>
+        <v>-804.31600000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>48772.710122</v>
+        <v>48772.710121999997</v>
       </c>
       <c r="BY24" s="1">
-        <v>13.547975</v>
+        <v>13.547974999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1575.110000</v>
+        <v>1575.11</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1040.730000</v>
+        <v>-1040.73</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>48785.959256</v>
+        <v>48785.959256000002</v>
       </c>
       <c r="CD24" s="1">
         <v>13.551655</v>
       </c>
       <c r="CE24" s="1">
-        <v>1987.340000</v>
+        <v>1987.34</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1594.960000</v>
+        <v>-1594.96</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>48612.302942</v>
+        <v>48612.302942000002</v>
       </c>
       <c r="B25" s="1">
-        <v>13.503417</v>
+        <v>13.503417000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>900.793000</v>
+        <v>900.79300000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-181.635000</v>
+        <v>-181.63499999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>48622.406944</v>
+        <v>48622.406944000002</v>
       </c>
       <c r="G25" s="1">
         <v>13.506224</v>
       </c>
       <c r="H25" s="1">
-        <v>917.186000</v>
+        <v>917.18600000000004</v>
       </c>
       <c r="I25" s="1">
-        <v>-156.762000</v>
+        <v>-156.762</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>48632.597761</v>
+        <v>48632.597760999997</v>
       </c>
       <c r="L25" s="1">
         <v>13.509055</v>
       </c>
       <c r="M25" s="1">
-        <v>941.101000</v>
+        <v>941.101</v>
       </c>
       <c r="N25" s="1">
-        <v>-115.464000</v>
+        <v>-115.464</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>48643.163028</v>
+        <v>48643.163028000003</v>
       </c>
       <c r="Q25" s="1">
-        <v>13.511990</v>
+        <v>13.511990000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>948.597000</v>
+        <v>948.59699999999998</v>
       </c>
       <c r="S25" s="1">
-        <v>-101.503000</v>
+        <v>-101.503</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>48653.597401</v>
+        <v>48653.597400999999</v>
       </c>
       <c r="V25" s="1">
-        <v>13.514888</v>
+        <v>13.514887999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>955.893000</v>
+        <v>955.89300000000003</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.848700</v>
+        <v>-88.848699999999994</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>48664.171111</v>
+        <v>48664.171111000003</v>
       </c>
       <c r="AA25" s="1">
         <v>13.517825</v>
       </c>
       <c r="AB25" s="1">
-        <v>963.751000</v>
+        <v>963.75099999999998</v>
       </c>
       <c r="AC25" s="1">
-        <v>-79.978200</v>
+        <v>-79.978200000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>48674.990314</v>
+        <v>48674.990314000002</v>
       </c>
       <c r="AF25" s="1">
-        <v>13.520831</v>
+        <v>13.520830999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>969.013000</v>
+        <v>969.01300000000003</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.815100</v>
+        <v>-79.815100000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>48685.545677</v>
+        <v>48685.545677000002</v>
       </c>
       <c r="AK25" s="1">
-        <v>13.523763</v>
+        <v>13.523763000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>977.211000</v>
+        <v>977.21100000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.886800</v>
+        <v>-87.886799999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>48696.451246</v>
+        <v>48696.451245999997</v>
       </c>
       <c r="AP25" s="1">
         <v>13.526792</v>
       </c>
       <c r="AQ25" s="1">
-        <v>986.539000</v>
+        <v>986.53899999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.075000</v>
+        <v>-103.075</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>48707.563087</v>
+        <v>48707.563087000002</v>
       </c>
       <c r="AU25" s="1">
-        <v>13.529879</v>
+        <v>13.529878999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>998.065000</v>
+        <v>998.06500000000005</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.841000</v>
+        <v>-124.84099999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>48718.598092</v>
       </c>
       <c r="AZ25" s="1">
-        <v>13.532944</v>
+        <v>13.532944000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1007.830000</v>
+        <v>1007.83</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.695000</v>
+        <v>-143.69499999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>48729.579042</v>
+        <v>48729.579041999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>13.535994</v>
+        <v>13.535994000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1053.410000</v>
+        <v>1053.4100000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-228.968000</v>
+        <v>-228.96799999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>48741.123426</v>
+        <v>48741.123425999998</v>
       </c>
       <c r="BJ25" s="1">
         <v>13.539201</v>
       </c>
       <c r="BK25" s="1">
-        <v>1133.120000</v>
+        <v>1133.1199999999999</v>
       </c>
       <c r="BL25" s="1">
-        <v>-365.678000</v>
+        <v>-365.678</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>48751.393061</v>
+        <v>48751.393061000002</v>
       </c>
       <c r="BO25" s="1">
         <v>13.542054</v>
       </c>
       <c r="BP25" s="1">
-        <v>1264.750000</v>
+        <v>1264.75</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-577.428000</v>
+        <v>-577.428</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>48762.045178</v>
       </c>
       <c r="BT25" s="1">
-        <v>13.545013</v>
+        <v>13.545013000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1412.930000</v>
+        <v>1412.93</v>
       </c>
       <c r="BV25" s="1">
-        <v>-804.347000</v>
+        <v>-804.34699999999998</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>48773.170935</v>
+        <v>48773.170935000002</v>
       </c>
       <c r="BY25" s="1">
-        <v>13.548103</v>
+        <v>13.548102999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1575.180000</v>
+        <v>1575.18</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1040.910000</v>
+        <v>-1040.9100000000001</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>48786.474600</v>
+        <v>48786.474600000001</v>
       </c>
       <c r="CD25" s="1">
         <v>13.551798</v>
       </c>
       <c r="CE25" s="1">
-        <v>1986.070000</v>
+        <v>1986.07</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1593.970000</v>
+        <v>-1593.97</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>48612.580700</v>
+        <v>48612.580699999999</v>
       </c>
       <c r="B26" s="1">
-        <v>13.503495</v>
+        <v>13.503494999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>900.516000</v>
+        <v>900.51599999999996</v>
       </c>
       <c r="D26" s="1">
-        <v>-181.766000</v>
+        <v>-181.76599999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>48622.750670</v>
+        <v>48622.750670000001</v>
       </c>
       <c r="G26" s="1">
-        <v>13.506320</v>
+        <v>13.506320000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>917.452000</v>
+        <v>917.452</v>
       </c>
       <c r="I26" s="1">
-        <v>-156.575000</v>
+        <v>-156.57499999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>48632.941474</v>
+        <v>48632.941473999999</v>
       </c>
       <c r="L26" s="1">
-        <v>13.509150</v>
+        <v>13.50915</v>
       </c>
       <c r="M26" s="1">
-        <v>941.208000</v>
+        <v>941.20799999999997</v>
       </c>
       <c r="N26" s="1">
-        <v>-115.404000</v>
+        <v>-115.404</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>48643.513240</v>
+        <v>48643.51324</v>
       </c>
       <c r="Q26" s="1">
-        <v>13.512087</v>
+        <v>13.512086999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>948.541000</v>
+        <v>948.54100000000005</v>
       </c>
       <c r="S26" s="1">
-        <v>-101.500000</v>
+        <v>-101.5</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>48654.282379</v>
+        <v>48654.282378999997</v>
       </c>
       <c r="V26" s="1">
-        <v>13.515078</v>
+        <v>13.515078000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>955.848000</v>
+        <v>955.84799999999996</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.792600</v>
+        <v>-88.792599999999993</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>48664.868457</v>
+        <v>48664.868456999997</v>
       </c>
       <c r="AA26" s="1">
-        <v>13.518019</v>
+        <v>13.518019000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>963.742000</v>
+        <v>963.74199999999996</v>
       </c>
       <c r="AC26" s="1">
-        <v>-79.984200</v>
+        <v>-79.984200000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>48675.334569</v>
+        <v>48675.334568999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>13.520926</v>
+        <v>13.520925999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>969.010000</v>
+        <v>969.01</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.818900</v>
+        <v>-79.818899999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>48685.894370</v>
+        <v>48685.894370000002</v>
       </c>
       <c r="AK26" s="1">
-        <v>13.523860</v>
+        <v>13.523860000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>977.193000</v>
+        <v>977.19299999999998</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.895000</v>
+        <v>-87.894999999999996</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>48696.811345</v>
+        <v>48696.811345000002</v>
       </c>
       <c r="AP26" s="1">
         <v>13.526892</v>
       </c>
       <c r="AQ26" s="1">
-        <v>986.501000</v>
+        <v>986.50099999999998</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.078000</v>
+        <v>-103.078</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>48708.228718</v>
+        <v>48708.228717999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>13.530064</v>
+        <v>13.530063999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>998.073000</v>
+        <v>998.07299999999998</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.831000</v>
+        <v>-124.831</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>48719.046959</v>
+        <v>48719.046958999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>13.533069</v>
+        <v>13.533068999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1007.830000</v>
+        <v>1007.83</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.692000</v>
+        <v>-143.69200000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>48730.008080</v>
+        <v>48730.00808</v>
       </c>
       <c r="BE26" s="1">
         <v>13.536113</v>
       </c>
       <c r="BF26" s="1">
-        <v>1053.420000</v>
+        <v>1053.42</v>
       </c>
       <c r="BG26" s="1">
-        <v>-228.967000</v>
+        <v>-228.96700000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>48741.496881</v>
+        <v>48741.496880999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>13.539305</v>
+        <v>13.539305000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1133.150000</v>
+        <v>1133.1500000000001</v>
       </c>
       <c r="BL26" s="1">
-        <v>-365.752000</v>
+        <v>-365.75200000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>48751.797301</v>
+        <v>48751.797300999999</v>
       </c>
       <c r="BO26" s="1">
         <v>13.542166</v>
       </c>
       <c r="BP26" s="1">
-        <v>1264.760000</v>
+        <v>1264.76</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-577.434000</v>
+        <v>-577.43399999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>48762.469223</v>
       </c>
       <c r="BT26" s="1">
-        <v>13.545130</v>
+        <v>13.54513</v>
       </c>
       <c r="BU26" s="1">
-        <v>1412.800000</v>
+        <v>1412.8</v>
       </c>
       <c r="BV26" s="1">
-        <v>-804.399000</v>
+        <v>-804.399</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>48773.617831</v>
+        <v>48773.617831000003</v>
       </c>
       <c r="BY26" s="1">
-        <v>13.548227</v>
+        <v>13.548227000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1575.120000</v>
+        <v>1575.12</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1040.660000</v>
+        <v>-1040.6600000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>48786.991927</v>
+        <v>48786.991927000003</v>
       </c>
       <c r="CD26" s="1">
         <v>13.551942</v>
       </c>
       <c r="CE26" s="1">
-        <v>1985.360000</v>
+        <v>1985.36</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1595.520000</v>
+        <v>-1595.52</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>